--- a/database/system.xlsx
+++ b/database/system.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/Suntech/ProjectsGroup/document/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0E484E-2B47-4A47-B664-6FE65DA92BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D23FEBB-23FF-8F42-B58D-55D61C1736AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" firstSheet="6" activeTab="14" xr2:uid="{480A02FF-4BDA-A947-AA7E-56ADDCE3293B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20120" firstSheet="3" activeTab="19" xr2:uid="{480A02FF-4BDA-A947-AA7E-56ADDCE3293B}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -31,9 +31,11 @@
     <sheet name="global_param" sheetId="20" r:id="rId16"/>
     <sheet name="language" sheetId="21" r:id="rId17"/>
     <sheet name="menu_history" sheetId="22" r:id="rId18"/>
+    <sheet name="auth_token" sheetId="23" r:id="rId19"/>
+    <sheet name="news" sheetId="24" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="249">
   <si>
     <t>Tên bảng</t>
   </si>
@@ -293,9 +295,6 @@
     <t>activated</t>
   </si>
   <si>
-    <t>0: chưa kích hoạt, 1 đã kích hoạt</t>
-  </si>
-  <si>
     <t>Kích hoạt</t>
   </si>
   <si>
@@ -681,6 +680,126 @@
   </si>
   <si>
     <t>Share dữ liệu chung giữa các component =&gt; store</t>
+  </si>
+  <si>
+    <t>false: chưa kích hoạt, true đã kích hoạt</t>
+  </si>
+  <si>
+    <t>authorized</t>
+  </si>
+  <si>
+    <t>Đã xác thực chưa</t>
+  </si>
+  <si>
+    <t>false: chưa xác thực, true: đã xác thực</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>auth_token</t>
+  </si>
+  <si>
+    <t>Thẻ xác thực</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>Thời gian tạo record</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>db_created_date</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>varchar(1024)</t>
+  </si>
+  <si>
+    <t>last_locale_language</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>default_org</t>
+  </si>
+  <si>
+    <t>Công ty mặc định</t>
+  </si>
+  <si>
+    <t>Nạp trước khi login</t>
+  </si>
+  <si>
+    <t>Tin tức</t>
+  </si>
+  <si>
+    <t>26/04/2020</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Tiêu đề</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>sub_title</t>
+  </si>
+  <si>
+    <t>Tiêu đề phụ</t>
+  </si>
+  <si>
+    <t>pin_on_top</t>
+  </si>
+  <si>
+    <t>Ghim trên đầu</t>
+  </si>
+  <si>
+    <t>Nguồn</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>inro</t>
+  </si>
+  <si>
+    <t>Giới thiệu</t>
+  </si>
+  <si>
+    <t>view_counter</t>
+  </si>
+  <si>
+    <t>Số lần xem</t>
   </si>
 </sst>
 </file>
@@ -849,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -915,6 +1034,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3950,6 +4072,136 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rounded Rectangle 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEC57E1-72E4-DB42-9C6C-76AFEDD64DBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11010900" y="63500"/>
+          <a:ext cx="1854200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>auth_token</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rounded Rectangle 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE1FE63-66D0-B541-A1E9-41BBA5EE0C36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10998200" y="622300"/>
+          <a:ext cx="1854200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>news</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4011,7 +4263,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>varchar(50)</v>
+            <v>varchar(20)</v>
           </cell>
           <cell r="B8" t="str">
             <v>String</v>
@@ -4019,7 +4271,7 @@
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>varchar(255)</v>
+            <v>varchar(50)</v>
           </cell>
           <cell r="B9" t="str">
             <v>String</v>
@@ -4027,17 +4279,57 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
+            <v>varchar(255)</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>String</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>varchar(1024)</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>String</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
             <v>boolean</v>
           </cell>
-          <cell r="B10" t="str">
+          <cell r="B12" t="str">
             <v>Boolean</v>
           </cell>
         </row>
+        <row r="13">
+          <cell r="A13"/>
+          <cell r="B13"/>
+        </row>
+        <row r="14">
+          <cell r="A14"/>
+          <cell r="B14"/>
+        </row>
+        <row r="15">
+          <cell r="A15"/>
+          <cell r="B15"/>
+        </row>
+        <row r="16">
+          <cell r="A16"/>
+          <cell r="B16"/>
+        </row>
         <row r="17">
-          <cell r="A17" t="str">
+          <cell r="A17"/>
+          <cell r="B17"/>
+        </row>
+        <row r="18">
+          <cell r="A18"/>
+          <cell r="B18"/>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
             <v>bytea</v>
           </cell>
-          <cell r="B17" t="str">
+          <cell r="B19" t="str">
             <v>byte[]</v>
           </cell>
         </row>
@@ -4354,31 +4646,31 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
         <v>204</v>
-      </c>
-      <c r="C2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
         <v>206</v>
-      </c>
-      <c r="C5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4409,27 +4701,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -4438,7 +4730,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -4464,7 +4756,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
@@ -4559,7 +4851,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="2"/>
@@ -4571,7 +4863,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D11, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;IF(AND(LEN($F11)&gt;0, $C11&lt;&gt;"id")," = " &amp; $F11,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D11, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;IF(AND(LEN($F11)&gt;0, $C11&lt;&gt;"id")," = " &amp; $F11,"")&amp;";"</f>
         <v xml:space="preserve">    private Long id;</v>
       </c>
     </row>
@@ -4580,10 +4872,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -4600,7 +4892,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private Long orgId;</v>
       </c>
     </row>
@@ -4609,10 +4901,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
@@ -4629,7 +4921,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private Long humanId;</v>
       </c>
     </row>
@@ -4644,14 +4936,14 @@
         <v>20</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="b">
         <v>0</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="1" t="str">
@@ -4864,12 +5156,12 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -4929,7 +5221,7 @@
 ADD COLUMN   NOT NULL DEFAULT 1;</v>
       </c>
       <c r="M25" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; $F25,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; $F25,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4950,7 +5242,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M26" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4970,7 +5262,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M27" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4990,7 +5282,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M28" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5030,27 +5322,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -5059,7 +5351,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -5085,7 +5377,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
@@ -5177,7 +5469,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="2"/>
@@ -5195,10 +5487,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -5215,7 +5507,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private Long menuId;</v>
       </c>
     </row>
@@ -5224,10 +5516,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
@@ -5244,7 +5536,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private Long orgId;</v>
       </c>
     </row>
@@ -5253,10 +5545,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>9</v>
@@ -5273,7 +5565,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
         <v xml:space="preserve">    private Long sort;</v>
       </c>
     </row>
@@ -5288,14 +5580,14 @@
         <v>20</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="b">
         <v>0</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="1" t="str">
@@ -5508,12 +5800,12 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -5574,7 +5866,7 @@
 ADD COLUMN   NOT NULL DEFAULT 1;</v>
       </c>
       <c r="M26" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5595,7 +5887,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M27" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5615,7 +5907,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M28" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5635,7 +5927,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M29" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5675,27 +5967,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -5704,7 +5996,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -5730,7 +6022,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
@@ -5822,7 +6114,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="2"/>
@@ -5860,7 +6152,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private String code;</v>
       </c>
     </row>
@@ -5889,7 +6181,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private String name;</v>
       </c>
     </row>
@@ -5898,10 +6190,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>9</v>
@@ -5918,7 +6210,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
         <v xml:space="preserve">    private Long sort;</v>
       </c>
     </row>
@@ -5927,10 +6219,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>14</v>
@@ -5947,7 +6239,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
         <v xml:space="preserve">    private String path;</v>
       </c>
     </row>
@@ -5957,7 +6249,7 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>14</v>
@@ -5974,7 +6266,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
         <v xml:space="preserve">    private String fontIcon;</v>
       </c>
     </row>
@@ -5984,10 +6276,10 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -6001,7 +6293,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; $F17,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; $F17,"")&amp;";"</f>
         <v xml:space="preserve">    private Boolean useFontIcon;</v>
       </c>
     </row>
@@ -6011,10 +6303,10 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -6028,7 +6320,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D18, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;IF(AND(LEN($F18)&gt;0, $C18&lt;&gt;"id")," = " &amp; $F18,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D18, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;IF(AND(LEN($F18)&gt;0, $C18&lt;&gt;"id")," = " &amp; $F18,"")&amp;";"</f>
         <v xml:space="preserve">    private String iconData;</v>
       </c>
     </row>
@@ -6043,14 +6335,14 @@
         <v>20</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="1" t="str">
@@ -6061,7 +6353,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D19, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;IF(AND(LEN($F19)&gt;0, $C19&lt;&gt;"id")," = " &amp; $F19,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D19, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;IF(AND(LEN($F19)&gt;0, $C19&lt;&gt;"id")," = " &amp; $F19,"")&amp;";"</f>
         <v xml:space="preserve">    private Boolean disabled = false;</v>
       </c>
     </row>
@@ -6194,7 +6486,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -6267,13 +6559,13 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -6289,7 +6581,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6316,7 +6608,7 @@
         <v>38</v>
       </c>
       <c r="M29" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6341,7 +6633,7 @@
 ADD COLUMN   NOT NULL DEFAULT 1;</v>
       </c>
       <c r="M30" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6430,27 +6722,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -6459,7 +6751,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -6485,7 +6777,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
@@ -6577,7 +6869,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="2"/>
@@ -6596,7 +6888,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -6613,7 +6905,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private Long menuId;</v>
       </c>
     </row>
@@ -6623,7 +6915,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
@@ -6640,7 +6932,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private Long controlId;</v>
       </c>
     </row>
@@ -6655,14 +6947,14 @@
         <v>20</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="1" t="str">
@@ -6803,7 +7095,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -6876,13 +7168,13 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D22, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;IF(AND(LEN($F22)&gt;0, $C22&lt;&gt;"id")," = " &amp; $F22,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D22, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;IF(AND(LEN($F22)&gt;0, $C22&lt;&gt;"id")," = " &amp; $F22,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -6898,7 +7190,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D23, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C23))&amp;MID(SUBSTITUTE(PROPER($C23),"_",""),2,LEN($C23))&amp;IF(AND(LEN($F23)&gt;0, $C23&lt;&gt;"id")," = " &amp; $F23,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D23, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C23))&amp;MID(SUBSTITUTE(PROPER($C23),"_",""),2,LEN($C23))&amp;IF(AND(LEN($F23)&gt;0, $C23&lt;&gt;"id")," = " &amp; $F23,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6925,7 +7217,7 @@
         <v>38</v>
       </c>
       <c r="M24" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D24, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C24))&amp;MID(SUBSTITUTE(PROPER($C24),"_",""),2,LEN($C24))&amp;IF(AND(LEN($F24)&gt;0, $C24&lt;&gt;"id")," = " &amp; $F24,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D24, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C24))&amp;MID(SUBSTITUTE(PROPER($C24),"_",""),2,LEN($C24))&amp;IF(AND(LEN($F24)&gt;0, $C24&lt;&gt;"id")," = " &amp; $F24,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6950,7 +7242,7 @@
 ADD COLUMN   NOT NULL DEFAULT 1;</v>
       </c>
       <c r="M25" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; $F25,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; $F25,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7039,17 +7331,17 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -7061,7 +7353,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -7087,14 +7379,14 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="2"/>
@@ -7161,7 +7453,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -7181,7 +7473,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="2"/>
@@ -7193,7 +7485,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -7202,7 +7494,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -7219,7 +7511,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private Long userId;</v>
       </c>
     </row>
@@ -7229,7 +7521,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>14</v>
@@ -7246,7 +7538,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private String menuPath;</v>
       </c>
     </row>
@@ -7256,7 +7548,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>12</v>
@@ -7273,7 +7565,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
         <v xml:space="preserve">    private String controlId;</v>
       </c>
     </row>
@@ -7283,7 +7575,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>12</v>
@@ -7300,7 +7592,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
         <v xml:space="preserve">    private String key;</v>
       </c>
     </row>
@@ -7310,10 +7602,10 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -7327,7 +7619,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
         <v xml:space="preserve">    private String value;</v>
       </c>
     </row>
@@ -7432,7 +7724,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -7485,13 +7777,13 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; $F25,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; $F25,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -7507,7 +7799,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7534,7 +7826,7 @@
         <v>38</v>
       </c>
       <c r="M27" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7559,7 +7851,7 @@
 ADD COLUMN   NOT NULL DEFAULT 1;</v>
       </c>
       <c r="M28" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7630,7 +7922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B00BF8-BF48-254A-A076-553878C36CE4}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -7648,27 +7940,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -7677,7 +7969,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -7703,14 +7995,14 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="2"/>
@@ -7795,7 +8087,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="2"/>
@@ -7814,7 +8106,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -7831,7 +8123,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private Long companyId;</v>
       </c>
     </row>
@@ -7841,10 +8133,10 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -7858,7 +8150,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private String locale;</v>
       </c>
     </row>
@@ -7868,7 +8160,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>12</v>
@@ -7885,7 +8177,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
         <v xml:space="preserve">    private String category;</v>
       </c>
     </row>
@@ -7895,7 +8187,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>12</v>
@@ -7912,7 +8204,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
         <v xml:space="preserve">    private String typeGroup;</v>
       </c>
     </row>
@@ -7922,7 +8214,7 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>14</v>
@@ -7939,7 +8231,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
         <v xml:space="preserve">    private String key;</v>
       </c>
     </row>
@@ -7949,7 +8241,7 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>14</v>
@@ -7966,7 +8258,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; $F17,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; $F17,"")&amp;";"</f>
         <v xml:space="preserve">    private String value;</v>
       </c>
     </row>
@@ -7981,14 +8273,14 @@
         <v>20</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="1" t="str">
@@ -7999,7 +8291,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D18, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;IF(AND(LEN($F18)&gt;0, $C18&lt;&gt;"id")," = " &amp; $F18,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D18, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;IF(AND(LEN($F18)&gt;0, $C18&lt;&gt;"id")," = " &amp; $F18,"")&amp;";"</f>
         <v xml:space="preserve">    private Boolean disabled = false;</v>
       </c>
     </row>
@@ -8132,7 +8424,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -8205,13 +8497,13 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -8227,7 +8519,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8254,7 +8546,7 @@
         <v>38</v>
       </c>
       <c r="M28" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8279,7 +8571,7 @@
 ADD COLUMN   NOT NULL DEFAULT 1;</v>
       </c>
       <c r="M29" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8368,27 +8660,27 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -8397,7 +8689,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -8424,14 +8716,14 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="22"/>
@@ -8490,7 +8782,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>38</v>
@@ -8521,7 +8813,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -8541,7 +8833,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -8559,7 +8851,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private Long companyId;</v>
       </c>
     </row>
@@ -8569,7 +8861,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>14</v>
@@ -8587,7 +8879,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private String category;</v>
       </c>
     </row>
@@ -8597,7 +8889,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>14</v>
@@ -8618,7 +8910,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
         <v xml:space="preserve">    private String key;</v>
       </c>
     </row>
@@ -8628,7 +8920,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>14</v>
@@ -8646,7 +8938,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
         <v xml:space="preserve">    private String value;</v>
       </c>
     </row>
@@ -8656,7 +8948,7 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>9</v>
@@ -8674,7 +8966,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
         <v xml:space="preserve">    private Long sort;</v>
       </c>
     </row>
@@ -8689,15 +8981,15 @@
         <v>20</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="1" t="str">
@@ -8708,7 +9000,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; $F17,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; $F17,"")&amp;";"</f>
         <v xml:space="preserve">    private Boolean disabled = false;</v>
       </c>
     </row>
@@ -8846,7 +9138,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -8947,7 +9239,7 @@
     </row>
     <row r="27" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -8964,7 +9256,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8992,7 +9284,7 @@
         <v>38</v>
       </c>
       <c r="N28" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9018,7 +9310,7 @@
 ADD COLUMN   NOT NULL DEFAULT 1;</v>
       </c>
       <c r="N29" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9110,27 +9402,27 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -9139,7 +9431,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -9166,14 +9458,14 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="22"/>
@@ -9232,7 +9524,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>38</v>
@@ -9263,7 +9555,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -9283,10 +9575,10 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -9301,7 +9593,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private String locale;</v>
       </c>
     </row>
@@ -9329,7 +9621,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private String name;</v>
       </c>
     </row>
@@ -9339,7 +9631,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>9</v>
@@ -9369,15 +9661,15 @@
         <v>20</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1" t="str">
@@ -9523,7 +9815,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -9624,7 +9916,7 @@
     </row>
     <row r="25" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -9641,7 +9933,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; $F25,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; $F25,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9669,7 +9961,7 @@
         <v>38</v>
       </c>
       <c r="N26" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9695,7 +9987,7 @@
 ADD COLUMN   NOT NULL DEFAULT 1;</v>
       </c>
       <c r="N27" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9787,27 +10079,27 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -9816,7 +10108,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -9843,14 +10135,14 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="22"/>
@@ -9909,7 +10201,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>38</v>
@@ -9940,7 +10232,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -9960,7 +10252,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -9978,7 +10270,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private Long menuId;</v>
       </c>
     </row>
@@ -9988,7 +10280,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
@@ -10006,7 +10298,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private Long depId;</v>
       </c>
     </row>
@@ -10016,7 +10308,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>9</v>
@@ -10034,7 +10326,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
         <v xml:space="preserve">    private Long humanId;</v>
       </c>
     </row>
@@ -10044,7 +10336,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>9</v>
@@ -10062,7 +10354,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
         <v xml:space="preserve">    private Long lastAccess;</v>
       </c>
     </row>
@@ -10077,15 +10369,15 @@
         <v>20</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1" t="str">
@@ -10231,7 +10523,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -10332,7 +10624,7 @@
     </row>
     <row r="26" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -10349,7 +10641,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -10377,7 +10669,7 @@
         <v>38</v>
       </c>
       <c r="N27" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -10403,7 +10695,7 @@
 ADD COLUMN   NOT NULL DEFAULT 1;</v>
       </c>
       <c r="N28" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -10462,6 +10754,779 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FF3E04-CA9C-5C4D-8862-D859D85F748C}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N1" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="15"/>
+      <c r="N2" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3" t="str">
+        <f>"@Data"</f>
+        <v>@Data</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1" t="str">
+        <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
+        <v>drop table if exists auth_token;</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="str">
+        <f>"@Table"</f>
+        <v>@Table</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1" t="str">
+        <f xml:space="preserve"> "create table " &amp; C8</f>
+        <v>create table auth_token</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="str">
+        <f>"public class " &amp; PROPER(LEFT($C$8)) &amp; MID(SUBSTITUTE(PROPER($C$8),"_",""),2,LEN($C$8)) &amp; " extends GenericEntity {"</f>
+        <v>public class AuthToken extends GenericEntity {</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1" t="str">
+        <f t="shared" ref="J11:J25" si="0">"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
+        <v xml:space="preserve">    id bigint NOT NULL DEFAULT id_generator(),</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1" t="str">
+        <f>"    " &amp; C12 &amp; " " &amp; D12 &amp; IF(E12="yes"," NOT NULL", "") &amp; IF(LEN(F12) &gt; 0," DEFAULT " &amp; F12, "") &amp; ","</f>
+        <v xml:space="preserve">    authorized boolean DEFAULT false,</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <v xml:space="preserve">    private Boolean authorized = false;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1" t="str">
+        <f t="shared" ref="J13:J17" si="1">"    " &amp; C13 &amp; " " &amp; D13 &amp; IF(E13="yes"," NOT NULL", "") &amp; IF(LEN(F13) &gt; 0," DEFAULT " &amp; F13, "") &amp; ","</f>
+        <v xml:space="preserve">    token varchar(1024),</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <v xml:space="preserve">    private String token;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    user_id varchar(20),</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <v xml:space="preserve">    private String userId;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    last_locale_language varchar(10),</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <v xml:space="preserve">    private String lastLocaleLanguage;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    company_id varchar(20),</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
+        <v xml:space="preserve">    private String companyId;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    db_created_date timestamp NOT NULL DEFAULT now(),</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    created_by bigint,</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    created_date bigint,</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updated_by bigint,</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>12</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updated_date bigint,</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_by bigint,</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>14</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_date bigint,</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    version integer DEFAULT 1,</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",",,G11:G25)</f>
+        <v/>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1" t="str">
+        <f>IF(LEN($G26)&gt;0, "    unique (" &amp; $G26 &amp; "),","")</f>
+        <v/>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1" t="str">
+        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
+        <v xml:space="preserve">    CONSTRAINT auth_token_pk PRIMARY KEY (id)</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="J30" s="3" t="str">
+        <f>"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C30 &amp; " " &amp; D30 &amp; IF(E30="yes"," NOT NULL", "") &amp; IF(LEN(F30) &gt; 0," DEFAULT " &amp; F30, "") &amp; ";"</f>
+        <v>ALTER TABLE auth_token
+ADD COLUMN  ;</v>
+      </c>
+      <c r="N30" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>2</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="J31" s="3" t="str">
+        <f t="shared" ref="J31:J33" si="2">"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C31 &amp; " " &amp; D31 &amp; IF(E31="yes"," NOT NULL", "") &amp; IF(LEN(F31) &gt; 0," DEFAULT " &amp; F31, "") &amp; ";"</f>
+        <v>ALTER TABLE auth_token
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>3</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="J32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALTER TABLE auth_token
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>4</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="J33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALTER TABLE auth_token
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A28:H28"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:H7"/>
@@ -10478,7 +11543,7 @@
   <dimension ref="H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10495,12 +11560,880 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8475E7-60F3-CD43-9740-A0DF9677F6EE}">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N1" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="15"/>
+      <c r="N2" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3" t="str">
+        <f>"@Data"</f>
+        <v>@Data</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1" t="str">
+        <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
+        <v>drop table if exists news;</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="str">
+        <f>"@Table"</f>
+        <v>@Table</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1" t="str">
+        <f xml:space="preserve"> "create table " &amp; C8</f>
+        <v>create table news</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="str">
+        <f>"public class " &amp; PROPER(LEFT($C$8)) &amp; MID(SUBSTITUTE(PROPER($C$8),"_",""),2,LEN($C$8)) &amp; " extends GenericEntity {"</f>
+        <v>public class News extends GenericEntity {</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1" t="str">
+        <f t="shared" ref="J11:J28" si="0">"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
+        <v xml:space="preserve">    id bigint NOT NULL DEFAULT id_generator(),</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1" t="str">
+        <f>"    " &amp; C12 &amp; " " &amp; D12 &amp; IF(E12="yes"," NOT NULL", "") &amp; IF(LEN(F12) &gt; 0," DEFAULT " &amp; F12, "") &amp; ","</f>
+        <v xml:space="preserve">    title text,</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <v xml:space="preserve">    private String title;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1" t="str">
+        <f t="shared" ref="J13:J14" si="1">"    " &amp; C13 &amp; " " &amp; D13 &amp; IF(E13="yes"," NOT NULL", "") &amp; IF(LEN(F13) &gt; 0," DEFAULT " &amp; F13, "") &amp; ","</f>
+        <v xml:space="preserve">    sub_title text,</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <v xml:space="preserve">    private String subTitle;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    inro text,</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <v xml:space="preserve">    private String inro;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1" t="str">
+        <f t="shared" ref="J15:J20" si="2">"    " &amp; C15 &amp; " " &amp; D15 &amp; IF(E15="yes"," NOT NULL", "") &amp; IF(LEN(F15) &gt; 0," DEFAULT " &amp; F15, "") &amp; ","</f>
+        <v xml:space="preserve">    content text,</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <v xml:space="preserve">    private String content;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    start_date bigint,</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long startDate;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    end_date bigint,</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; $F17,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long endDate;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    pin_on_top boolean DEFAULT false,</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D18, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;IF(AND(LEN($F18)&gt;0, $C18&lt;&gt;"id")," = " &amp; $F18,"")&amp;";"</f>
+        <v xml:space="preserve">    private Boolean pinOnTop = false;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    source text,</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D19, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;IF(AND(LEN($F19)&gt;0, $C19&lt;&gt;"id")," = " &amp; $F19,"")&amp;";"</f>
+        <v xml:space="preserve">    private String source;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    view_counter bigint DEFAULT 0,</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D20, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C20))&amp;MID(SUBSTITUTE(PROPER($C20),"_",""),2,LEN($C20))&amp;IF(AND(LEN($F20)&gt;0, $C20&lt;&gt;"id")," = " &amp; $F20,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long viewCounter = 0;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>12</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    created_by bigint,</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    created_date bigint,</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>14</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updated_by bigint,</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updated_date bigint,</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_by bigint,</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>17</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_date bigint,</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>18</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    version integer DEFAULT 1,</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",",,G11:G28)</f>
+        <v/>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1" t="str">
+        <f>IF(LEN($G29)&gt;0, "    unique (" &amp; $G29 &amp; "),","")</f>
+        <v/>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1" t="str">
+        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
+        <v xml:space="preserve">    CONSTRAINT news_pk PRIMARY KEY (id)</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; $F31,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D32, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C32))&amp;MID(SUBSTITUTE(PROPER($C32),"_",""),2,LEN($C32))&amp;IF(AND(LEN($F32)&gt;0, $C32&lt;&gt;"id")," = " &amp; $F32,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="J33" s="3" t="str">
+        <f>"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C33 &amp; " " &amp; D33 &amp; IF(E33="yes"," NOT NULL", "") &amp; IF(LEN(F33) &gt; 0," DEFAULT " &amp; F33, "") &amp; ";"</f>
+        <v>ALTER TABLE news
+ADD COLUMN  ;</v>
+      </c>
+      <c r="N33" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D33, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C33))&amp;MID(SUBSTITUTE(PROPER($C33),"_",""),2,LEN($C33))&amp;IF(AND(LEN($F33)&gt;0, $C33&lt;&gt;"id")," = " &amp; $F33,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>2</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="J34" s="3" t="str">
+        <f t="shared" ref="J34:J36" si="3">"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C34 &amp; " " &amp; D34 &amp; IF(E34="yes"," NOT NULL", "") &amp; IF(LEN(F34) &gt; 0," DEFAULT " &amp; F34, "") &amp; ";"</f>
+        <v>ALTER TABLE news
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>3</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="J35" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>ALTER TABLE news
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>4</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="J36" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>ALTER TABLE news
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D9600D-F7F3-0542-AFC1-A4D74AFE6D69}">
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:M23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10517,27 +12450,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -10667,7 +12600,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="2"/>
@@ -10679,7 +12612,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D11, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;IF(AND(LEN($F11)&gt;0, $C11&lt;&gt;"id")," = " &amp; F11,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D11, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;IF(AND(LEN($F11)&gt;0, $C11&lt;&gt;"id")," = " &amp; F11,"")&amp;";"</f>
         <v xml:space="preserve">    private Long id;</v>
       </c>
     </row>
@@ -10689,7 +12622,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -10706,7 +12639,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; F12,"")&amp;";"</f>
         <v xml:space="preserve">    private Long defaultOwnerOrgId;</v>
       </c>
     </row>
@@ -10735,7 +12668,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; F13,"")&amp;";"</f>
         <v xml:space="preserve">    private String code;</v>
       </c>
     </row>
@@ -10764,7 +12697,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; F14,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; F14,"")&amp;";"</f>
         <v xml:space="preserve">    private String lastName;</v>
       </c>
     </row>
@@ -10793,7 +12726,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; F15,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; F15,"")&amp;";"</f>
         <v xml:space="preserve">    private String firstName;</v>
       </c>
     </row>
@@ -10824,7 +12757,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; F16,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; F16,"")&amp;";"</f>
         <v xml:space="preserve">    private String name;</v>
       </c>
     </row>
@@ -10853,7 +12786,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; F17,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; F17,"")&amp;";"</f>
         <v xml:space="preserve">    private String nickName;</v>
       </c>
     </row>
@@ -10865,7 +12798,7 @@
         <v>70</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>14</v>
@@ -10882,7 +12815,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D18, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;IF(AND(LEN($F18)&gt;0, $C18&lt;&gt;"id")," = " &amp; F18,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D18, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;IF(AND(LEN($F18)&gt;0, $C18&lt;&gt;"id")," = " &amp; F18,"")&amp;";"</f>
         <v xml:space="preserve">    private String username;</v>
       </c>
     </row>
@@ -10911,7 +12844,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D19, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;IF(AND(LEN($F19)&gt;0, $C19&lt;&gt;"id")," = " &amp; F19,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D19, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;IF(AND(LEN($F19)&gt;0, $C19&lt;&gt;"id")," = " &amp; F19,"")&amp;";"</f>
         <v xml:space="preserve">    private String password;</v>
       </c>
     </row>
@@ -10921,7 +12854,7 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>14</v>
@@ -10938,7 +12871,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D20, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C20))&amp;MID(SUBSTITUTE(PROPER($C20),"_",""),2,LEN($C20))&amp;IF(AND(LEN($F20)&gt;0, $C20&lt;&gt;"id")," = " &amp; F20,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D20, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C20))&amp;MID(SUBSTITUTE(PROPER($C20),"_",""),2,LEN($C20))&amp;IF(AND(LEN($F20)&gt;0, $C20&lt;&gt;"id")," = " &amp; F20,"")&amp;";"</f>
         <v xml:space="preserve">    private String emai;</v>
       </c>
     </row>
@@ -10946,7 +12879,7 @@
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>14</v>
@@ -10963,7 +12896,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D21, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C21))&amp;MID(SUBSTITUTE(PROPER($C21),"_",""),2,LEN($C21))&amp;IF(AND(LEN($F21)&gt;0, $C21&lt;&gt;"id")," = " &amp; F21,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D21, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C21))&amp;MID(SUBSTITUTE(PROPER($C21),"_",""),2,LEN($C21))&amp;IF(AND(LEN($F21)&gt;0, $C21&lt;&gt;"id")," = " &amp; F21,"")&amp;";"</f>
         <v xml:space="preserve">    private String fontIcon;</v>
       </c>
     </row>
@@ -10971,10 +12904,10 @@
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -10988,7 +12921,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D22, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;IF(AND(LEN($F22)&gt;0, $C22&lt;&gt;"id")," = " &amp; F22,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D22, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;IF(AND(LEN($F22)&gt;0, $C22&lt;&gt;"id")," = " &amp; F22,"")&amp;";"</f>
         <v xml:space="preserve">    private Boolean useFontIcon;</v>
       </c>
     </row>
@@ -10996,10 +12929,10 @@
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -11013,7 +12946,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D23, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C23))&amp;MID(SUBSTITUTE(PROPER($C23),"_",""),2,LEN($C23))&amp;IF(AND(LEN($F23)&gt;0, $C23&lt;&gt;"id")," = " &amp; F23,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D23, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C23))&amp;MID(SUBSTITUTE(PROPER($C23),"_",""),2,LEN($C23))&amp;IF(AND(LEN($F23)&gt;0, $C23&lt;&gt;"id")," = " &amp; F23,"")&amp;";"</f>
         <v xml:space="preserve">    private String iconData;</v>
       </c>
     </row>
@@ -11023,7 +12956,7 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>14</v>
@@ -11040,7 +12973,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D24, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C24))&amp;MID(SUBSTITUTE(PROPER($C24),"_",""),2,LEN($C24))&amp;IF(AND(LEN($F24)&gt;0, $C24&lt;&gt;"id")," = " &amp; F24,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D24, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C24))&amp;MID(SUBSTITUTE(PROPER($C24),"_",""),2,LEN($C24))&amp;IF(AND(LEN($F24)&gt;0, $C24&lt;&gt;"id")," = " &amp; F24,"")&amp;";"</f>
         <v xml:space="preserve">    private String resetPasswordToken;</v>
       </c>
     </row>
@@ -11050,7 +12983,7 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>9</v>
@@ -11067,7 +13000,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; F25,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; F25,"")&amp;";"</f>
         <v xml:space="preserve">    private Long resetPasswordTime;</v>
       </c>
     </row>
@@ -11096,7 +13029,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; F26,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; F26,"")&amp;";"</f>
         <v xml:space="preserve">    private Long passwordExpired;</v>
       </c>
     </row>
@@ -11105,32 +13038,32 @@
         <v>14</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="8">
-        <v>0</v>
+      <c r="F27" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    activated smallint DEFAULT 0,</v>
+        <v xml:space="preserve">    activated boolean DEFAULT true,</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; F27,"")&amp;";"</f>
-        <v xml:space="preserve">    private Integer activated = 0;</v>
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; F27,"")&amp;";"</f>
+        <v xml:space="preserve">    private Boolean activated = true;</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -11158,7 +13091,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; F28,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; F28,"")&amp;";"</f>
         <v xml:space="preserve">    private Long lastLogin;</v>
       </c>
     </row>
@@ -11189,7 +13122,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; F29,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; F29,"")&amp;";"</f>
         <v xml:space="preserve">    private Integer typeCustomer;</v>
       </c>
     </row>
@@ -11220,7 +13153,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; F30,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; F30,"")&amp;";"</f>
         <v xml:space="preserve">    private Integer typeSupplier;</v>
       </c>
     </row>
@@ -11251,7 +13184,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; F31,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; F31,"")&amp;";"</f>
         <v xml:space="preserve">    private Integer typeEmployee;</v>
       </c>
     </row>
@@ -11271,7 +13204,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="1" t="str">
@@ -11282,7 +13215,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D32, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C32))&amp;MID(SUBSTITUTE(PROPER($C32),"_",""),2,LEN($C32))&amp;IF(AND(LEN($F32)&gt;0, $C32&lt;&gt;"id")," = " &amp; F32,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D32, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C32))&amp;MID(SUBSTITUTE(PROPER($C32),"_",""),2,LEN($C32))&amp;IF(AND(LEN($F32)&gt;0, $C32&lt;&gt;"id")," = " &amp; F32,"")&amp;";"</f>
         <v xml:space="preserve">    private Integer typeCompany;</v>
       </c>
     </row>
@@ -11297,14 +13230,14 @@
         <v>20</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="1" t="str">
@@ -11517,12 +13450,12 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -11583,7 +13516,7 @@
 ADD COLUMN   NOT NULL DEFAULT 1;</v>
       </c>
       <c r="M44" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D44, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C44))&amp;MID(SUBSTITUTE(PROPER($C44),"_",""),2,LEN($C44))&amp;IF(AND(LEN($F44)&gt;0, $C44&lt;&gt;"id")," = " &amp; $F44,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D44, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C44))&amp;MID(SUBSTITUTE(PROPER($C44),"_",""),2,LEN($C44))&amp;IF(AND(LEN($F44)&gt;0, $C44&lt;&gt;"id")," = " &amp; $F44,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -11604,7 +13537,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M45" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D45, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C45))&amp;MID(SUBSTITUTE(PROPER($C45),"_",""),2,LEN($C45))&amp;IF(AND(LEN($F45)&gt;0, $C45&lt;&gt;"id")," = " &amp; $F45,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D45, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C45))&amp;MID(SUBSTITUTE(PROPER($C45),"_",""),2,LEN($C45))&amp;IF(AND(LEN($F45)&gt;0, $C45&lt;&gt;"id")," = " &amp; $F45,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -11624,7 +13557,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M46" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D46, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C46))&amp;MID(SUBSTITUTE(PROPER($C46),"_",""),2,LEN($C46))&amp;IF(AND(LEN($F46)&gt;0, $C46&lt;&gt;"id")," = " &amp; $F46,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D46, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C46))&amp;MID(SUBSTITUTE(PROPER($C46),"_",""),2,LEN($C46))&amp;IF(AND(LEN($F46)&gt;0, $C46&lt;&gt;"id")," = " &amp; $F46,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -11644,7 +13577,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M47" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D47, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C47))&amp;MID(SUBSTITUTE(PROPER($C47),"_",""),2,LEN($C47))&amp;IF(AND(LEN($F47)&gt;0, $C47&lt;&gt;"id")," = " &amp; $F47,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D47, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C47))&amp;MID(SUBSTITUTE(PROPER($C47),"_",""),2,LEN($C47))&amp;IF(AND(LEN($F47)&gt;0, $C47&lt;&gt;"id")," = " &amp; $F47,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -11664,10 +13597,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE84DBB-2ECF-C341-AB9E-FD18F2FFBB0F}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11684,27 +13617,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -11713,7 +13646,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -11739,7 +13672,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
@@ -11831,7 +13764,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="2"/>
@@ -11862,14 +13795,14 @@
       <c r="G12" s="9"/>
       <c r="H12" s="2"/>
       <c r="I12" s="1" t="str">
-        <f t="shared" ref="I12:I40" si="0">"    " &amp; C12 &amp; " " &amp; D12 &amp; IF(E12="yes"," NOT NULL", "") &amp; IF(LEN(F12) &gt; 0," DEFAULT " &amp; F12, "") &amp; ","</f>
+        <f t="shared" ref="I12:I41" si="0">"    " &amp; C12 &amp; " " &amp; D12 &amp; IF(E12="yes"," NOT NULL", "") &amp; IF(LEN(F12) &gt; 0," DEFAULT " &amp; F12, "") &amp; ","</f>
         <v xml:space="preserve">    parent_id bigint,</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private Long parentId;</v>
       </c>
     </row>
@@ -11878,10 +13811,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>18</v>
@@ -11889,7 +13822,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="str">
@@ -11900,7 +13833,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private Integer type;</v>
       </c>
     </row>
@@ -11929,7 +13862,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
         <v xml:space="preserve">    private String code;</v>
       </c>
     </row>
@@ -11958,7 +13891,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
         <v xml:space="preserve">    private String name;</v>
       </c>
     </row>
@@ -11967,10 +13900,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>14</v>
@@ -11987,7 +13920,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
         <v xml:space="preserve">    private String slogan;</v>
       </c>
     </row>
@@ -11999,7 +13932,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>14</v>
@@ -12016,7 +13949,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; $F17,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; $F17,"")&amp;";"</f>
         <v xml:space="preserve">    private String fontIcon;</v>
       </c>
     </row>
@@ -12026,10 +13959,10 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -12043,7 +13976,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D18, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;IF(AND(LEN($F18)&gt;0, $C18&lt;&gt;"id")," = " &amp; $F18,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D18, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;IF(AND(LEN($F18)&gt;0, $C18&lt;&gt;"id")," = " &amp; $F18,"")&amp;";"</f>
         <v xml:space="preserve">    private Boolean useFontIcon;</v>
       </c>
     </row>
@@ -12053,10 +13986,10 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -12070,7 +14003,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D19, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;IF(AND(LEN($F19)&gt;0, $C19&lt;&gt;"id")," = " &amp; $F19,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D19, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;IF(AND(LEN($F19)&gt;0, $C19&lt;&gt;"id")," = " &amp; $F19,"")&amp;";"</f>
         <v xml:space="preserve">    private String iconData;</v>
       </c>
     </row>
@@ -12082,7 +14015,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>14</v>
@@ -12099,7 +14032,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D20, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C20))&amp;MID(SUBSTITUTE(PROPER($C20),"_",""),2,LEN($C20))&amp;IF(AND(LEN($F20)&gt;0, $C20&lt;&gt;"id")," = " &amp; $F20,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D20, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C20))&amp;MID(SUBSTITUTE(PROPER($C20),"_",""),2,LEN($C20))&amp;IF(AND(LEN($F20)&gt;0, $C20&lt;&gt;"id")," = " &amp; $F20,"")&amp;";"</f>
         <v xml:space="preserve">    private String houseNumber;</v>
       </c>
     </row>
@@ -12108,7 +14041,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>51</v>
@@ -12128,7 +14061,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D21, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C21))&amp;MID(SUBSTITUTE(PROPER($C21),"_",""),2,LEN($C21))&amp;IF(AND(LEN($F21)&gt;0, $C21&lt;&gt;"id")," = " &amp; $F21,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D21, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C21))&amp;MID(SUBSTITUTE(PROPER($C21),"_",""),2,LEN($C21))&amp;IF(AND(LEN($F21)&gt;0, $C21&lt;&gt;"id")," = " &amp; $F21,"")&amp;";"</f>
         <v xml:space="preserve">    private String street;</v>
       </c>
     </row>
@@ -12137,10 +14070,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>9</v>
@@ -12157,7 +14090,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D22, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;IF(AND(LEN($F22)&gt;0, $C22&lt;&gt;"id")," = " &amp; $F22,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D22, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;IF(AND(LEN($F22)&gt;0, $C22&lt;&gt;"id")," = " &amp; $F22,"")&amp;";"</f>
         <v xml:space="preserve">    private Long wardId;</v>
       </c>
     </row>
@@ -12166,10 +14099,10 @@
         <v>13</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>9</v>
@@ -12186,7 +14119,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D23, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C23))&amp;MID(SUBSTITUTE(PROPER($C23),"_",""),2,LEN($C23))&amp;IF(AND(LEN($F23)&gt;0, $C23&lt;&gt;"id")," = " &amp; $F23,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D23, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C23))&amp;MID(SUBSTITUTE(PROPER($C23),"_",""),2,LEN($C23))&amp;IF(AND(LEN($F23)&gt;0, $C23&lt;&gt;"id")," = " &amp; $F23,"")&amp;";"</f>
         <v xml:space="preserve">    private Long districtId;</v>
       </c>
     </row>
@@ -12195,10 +14128,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>9</v>
@@ -12215,7 +14148,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D24, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C24))&amp;MID(SUBSTITUTE(PROPER($C24),"_",""),2,LEN($C24))&amp;IF(AND(LEN($F24)&gt;0, $C24&lt;&gt;"id")," = " &amp; $F24,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D24, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C24))&amp;MID(SUBSTITUTE(PROPER($C24),"_",""),2,LEN($C24))&amp;IF(AND(LEN($F24)&gt;0, $C24&lt;&gt;"id")," = " &amp; $F24,"")&amp;";"</f>
         <v xml:space="preserve">    private Long cityId;</v>
       </c>
     </row>
@@ -12227,7 +14160,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>9</v>
@@ -12244,7 +14177,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; $F25,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; $F25,"")&amp;";"</f>
         <v xml:space="preserve">    private Long countryId;</v>
       </c>
     </row>
@@ -12253,10 +14186,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>14</v>
@@ -12264,7 +14197,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="1" t="str">
@@ -12275,7 +14208,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
         <v xml:space="preserve">    private String tel;</v>
       </c>
     </row>
@@ -12284,7 +14217,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>49</v>
@@ -12295,7 +14228,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="1" t="str">
@@ -12306,7 +14239,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
         <v xml:space="preserve">    private String email;</v>
       </c>
     </row>
@@ -12315,7 +14248,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>53</v>
@@ -12335,7 +14268,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
         <v xml:space="preserve">    private String facebook;</v>
       </c>
     </row>
@@ -12344,7 +14277,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>54</v>
@@ -12364,7 +14297,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
         <v xml:space="preserve">    private String twitter;</v>
       </c>
     </row>
@@ -12373,7 +14306,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>55</v>
@@ -12393,7 +14326,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
         <v xml:space="preserve">    private String skype;</v>
       </c>
     </row>
@@ -12402,10 +14335,10 @@
         <v>21</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>14</v>
@@ -12422,7 +14355,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; $F31,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; $F31,"")&amp;";"</f>
         <v xml:space="preserve">    private String website;</v>
       </c>
     </row>
@@ -12431,10 +14364,10 @@
         <v>22</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>9</v>
@@ -12457,25 +14390,25 @@
         <v>23</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>155</v>
+      <c r="F33" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>227</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    disabled boolean DEFAULT FALSE,</v>
+        <v xml:space="preserve">    default_org boolean DEFAULT false,</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
@@ -12487,21 +14420,25 @@
         <v>24</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
+      <c r="F34" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    created_by bigint,</v>
+        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
@@ -12513,10 +14450,10 @@
         <v>25</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>9</v>
@@ -12527,7 +14464,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    created_date bigint,</v>
+        <v xml:space="preserve">    created_by bigint,</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
@@ -12539,10 +14476,10 @@
         <v>26</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>9</v>
@@ -12553,7 +14490,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    updated_by bigint,</v>
+        <v xml:space="preserve">    created_date bigint,</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
@@ -12565,10 +14502,10 @@
         <v>27</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>9</v>
@@ -12579,7 +14516,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    updated_date bigint,</v>
+        <v xml:space="preserve">    updated_by bigint,</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
@@ -12591,10 +14528,10 @@
         <v>28</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>9</v>
@@ -12605,7 +14542,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    deleted_by bigint,</v>
+        <v xml:space="preserve">    updated_date bigint,</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
@@ -12617,10 +14554,10 @@
         <v>29</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>9</v>
@@ -12631,7 +14568,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    deleted_date bigint,</v>
+        <v xml:space="preserve">    deleted_by bigint,</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
@@ -12643,23 +14580,21 @@
         <v>30</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="8">
-        <v>1</v>
-      </c>
+      <c r="F40" s="8"/>
       <c r="G40" s="9"/>
       <c r="H40" s="2"/>
       <c r="I40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    version integer DEFAULT 1,</v>
+        <v xml:space="preserve">    deleted_date bigint,</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
@@ -12667,116 +14602,123 @@
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="A41" s="5">
+        <v>31</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1" t="str">
-        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
-        <v xml:space="preserve">    CONSTRAINT owner_org_pk PRIMARY KEY (id)</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    version integer DEFAULT 1,</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="1" t="s">
-        <v>32</v>
+      <c r="I42" s="1" t="str">
+        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
+        <v xml:space="preserve">    CONSTRAINT owner_org_pk PRIMARY KEY (id)</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="M42" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D44" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E44" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G44" s="13" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>1</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="8">
-        <v>1</v>
-      </c>
-      <c r="G44" s="9"/>
-      <c r="I44" s="3" t="str">
-        <f>"ALTER TABLE " &amp; $C$8 &amp; "
-ADD COLUMN " &amp; C44 &amp; " " &amp; D44 &amp; IF(E44="yes"," NOT NULL", "") &amp; IF(LEN(F44) &gt; 0," DEFAULT " &amp; F44, "") &amp; ";"</f>
-        <v>ALTER TABLE owner_org
-ADD COLUMN   NOT NULL DEFAULT 1;</v>
-      </c>
-      <c r="M44" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D44, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C44))&amp;MID(SUBSTITUTE(PROPER($C44),"_",""),2,LEN($C44))&amp;IF(AND(LEN($F44)&gt;0, $C44&lt;&gt;"id")," = " &amp; $F44,"")&amp;";"</f>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
+      <c r="E45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1</v>
+      </c>
       <c r="G45" s="9"/>
       <c r="I45" s="3" t="str">
-        <f t="shared" ref="I45:I47" si="1">"ALTER TABLE " &amp; $C$8 &amp; "
+        <f>"ALTER TABLE " &amp; $C$8 &amp; "
 ADD COLUMN " &amp; C45 &amp; " " &amp; D45 &amp; IF(E45="yes"," NOT NULL", "") &amp; IF(LEN(F45) &gt; 0," DEFAULT " &amp; F45, "") &amp; ";"</f>
         <v>ALTER TABLE owner_org
-ADD COLUMN  ;</v>
+ADD COLUMN   NOT NULL DEFAULT 1;</v>
       </c>
       <c r="M45" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D45, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C45))&amp;MID(SUBSTITUTE(PROPER($C45),"_",""),2,LEN($C45))&amp;IF(AND(LEN($F45)&gt;0, $C45&lt;&gt;"id")," = " &amp; $F45,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D45, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C45))&amp;MID(SUBSTITUTE(PROPER($C45),"_",""),2,LEN($C45))&amp;IF(AND(LEN($F45)&gt;0, $C45&lt;&gt;"id")," = " &amp; $F45,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -12785,18 +14727,19 @@
       <c r="F46" s="8"/>
       <c r="G46" s="9"/>
       <c r="I46" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I46:I48" si="1">"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C46 &amp; " " &amp; D46 &amp; IF(E46="yes"," NOT NULL", "") &amp; IF(LEN(F46) &gt; 0," DEFAULT " &amp; F46, "") &amp; ";"</f>
         <v>ALTER TABLE owner_org
 ADD COLUMN  ;</v>
       </c>
       <c r="M46" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D46, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C46))&amp;MID(SUBSTITUTE(PROPER($C46),"_",""),2,LEN($C46))&amp;IF(AND(LEN($F46)&gt;0, $C46&lt;&gt;"id")," = " &amp; $F46,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D46, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C46))&amp;MID(SUBSTITUTE(PROPER($C46),"_",""),2,LEN($C46))&amp;IF(AND(LEN($F46)&gt;0, $C46&lt;&gt;"id")," = " &amp; $F46,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -12810,13 +14753,33 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M47" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D47, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C47))&amp;MID(SUBSTITUTE(PROPER($C47),"_",""),2,LEN($C47))&amp;IF(AND(LEN($F47)&gt;0, $C47&lt;&gt;"id")," = " &amp; $F47,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D47, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C47))&amp;MID(SUBSTITUTE(PROPER($C47),"_",""),2,LEN($C47))&amp;IF(AND(LEN($F47)&gt;0, $C47&lt;&gt;"id")," = " &amp; $F47,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>4</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="9"/>
+      <c r="I48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE owner_org
+ADD COLUMN  ;</v>
+      </c>
+      <c r="M48" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D48, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C48))&amp;MID(SUBSTITUTE(PROPER($C48),"_",""),2,LEN($C48))&amp;IF(AND(LEN($F48)&gt;0, $C48&lt;&gt;"id")," = " &amp; $F48,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:G43"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:G7"/>
@@ -12833,7 +14796,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12850,27 +14813,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -12879,7 +14842,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -12905,7 +14868,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
@@ -13000,7 +14963,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="2"/>
@@ -13012,7 +14975,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D11, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;IF(AND(LEN($F11)&gt;0, $C11&lt;&gt;"id")," = " &amp; $F11,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D11, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;IF(AND(LEN($F11)&gt;0, $C11&lt;&gt;"id")," = " &amp; $F11,"")&amp;";"</f>
         <v xml:space="preserve">    private Long id;</v>
       </c>
     </row>
@@ -13021,10 +14984,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -13041,7 +15004,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private Long ownerOrgId;</v>
       </c>
     </row>
@@ -13070,7 +15033,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private String code;</v>
       </c>
     </row>
@@ -13099,7 +15062,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
         <v xml:space="preserve">    private String name;</v>
       </c>
     </row>
@@ -13108,10 +15071,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>9</v>
@@ -13128,7 +15091,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
         <v xml:space="preserve">    private Long sort;</v>
       </c>
     </row>
@@ -13143,14 +15106,14 @@
         <v>20</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="b">
         <v>0</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="1" t="str">
@@ -13363,12 +15326,12 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -13414,7 +15377,7 @@
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>9</v>
@@ -13433,7 +15396,7 @@
 ADD COLUMN new_column bigint NOT NULL DEFAULT 1;</v>
       </c>
       <c r="M27" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
         <v xml:space="preserve">    private Long newColumn = 1;</v>
       </c>
     </row>
@@ -13454,7 +15417,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M28" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -13474,7 +15437,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M29" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -13494,7 +15457,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M30" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -13534,27 +15497,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -13563,7 +15526,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -13589,7 +15552,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
@@ -13684,7 +15647,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="2"/>
@@ -13696,7 +15659,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D11, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;IF(AND(LEN($F11)&gt;0, $C11&lt;&gt;"id")," = " &amp; $F11,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D11, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;IF(AND(LEN($F11)&gt;0, $C11&lt;&gt;"id")," = " &amp; $F11,"")&amp;";"</f>
         <v xml:space="preserve">    private Long id;</v>
       </c>
     </row>
@@ -13705,10 +15668,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -13725,7 +15688,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private Long roleId;</v>
       </c>
     </row>
@@ -13734,10 +15697,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
@@ -13754,7 +15717,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private Long userId;</v>
       </c>
     </row>
@@ -13769,14 +15732,14 @@
         <v>20</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="b">
         <v>0</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="1" t="str">
@@ -13989,12 +15952,12 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -14040,7 +16003,7 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>9</v>
@@ -14059,7 +16022,7 @@
 ADD COLUMN new_column bigint NOT NULL DEFAULT 1;</v>
       </c>
       <c r="M25" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; $F25,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; $F25,"")&amp;";"</f>
         <v xml:space="preserve">    private Long newColumn = 1;</v>
       </c>
     </row>
@@ -14080,7 +16043,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M26" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14100,7 +16063,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M27" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14120,7 +16083,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M28" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14160,27 +16123,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -14189,7 +16152,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -14215,7 +16178,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
@@ -14307,7 +16270,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="2"/>
@@ -14326,7 +16289,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -14343,7 +16306,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private Long roleId;</v>
       </c>
     </row>
@@ -14353,7 +16316,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
@@ -14370,7 +16333,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private Long menuOrgId;</v>
       </c>
     </row>
@@ -14380,14 +16343,14 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="2"/>
@@ -14399,7 +16362,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
         <v xml:space="preserve">    private Boolean isPrivate = false;</v>
       </c>
     </row>
@@ -14409,7 +16372,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>18</v>
@@ -14426,7 +16389,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
         <v xml:space="preserve">    private Integer dataLevel;</v>
       </c>
     </row>
@@ -14436,14 +16399,14 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="2"/>
@@ -14455,7 +16418,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
         <v xml:space="preserve">    private Boolean approve = false;</v>
       </c>
     </row>
@@ -14470,14 +16433,14 @@
         <v>20</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="1" t="str">
@@ -14690,12 +16653,12 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -14756,7 +16719,7 @@
 ADD COLUMN   NOT NULL DEFAULT 1;</v>
       </c>
       <c r="M28" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14777,7 +16740,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M29" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14797,7 +16760,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M30" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14817,7 +16780,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M31" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; $F31,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; $F31,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14857,27 +16820,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -14886,7 +16849,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -14912,7 +16875,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
@@ -15007,7 +16970,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="2"/>
@@ -15019,7 +16982,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D11, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;IF(AND(LEN($F11)&gt;0, $C11&lt;&gt;"id")," = " &amp; $F11,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D11, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C11))&amp;MID(SUBSTITUTE(PROPER($C11),"_",""),2,LEN($C11))&amp;IF(AND(LEN($F11)&gt;0, $C11&lt;&gt;"id")," = " &amp; $F11,"")&amp;";"</f>
         <v xml:space="preserve">    private Long id;</v>
       </c>
     </row>
@@ -15039,7 +17002,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="1" t="str">
@@ -15050,7 +17013,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private String code;</v>
       </c>
     </row>
@@ -15079,7 +17042,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private String name;</v>
       </c>
     </row>
@@ -15089,14 +17052,14 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="2"/>
@@ -15108,7 +17071,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
         <v xml:space="preserve">    private Boolean confirm = false;</v>
       </c>
     </row>
@@ -15118,14 +17081,14 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="2"/>
@@ -15137,7 +17100,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
         <v xml:space="preserve">    private Boolean requirePassword = false;</v>
       </c>
     </row>
@@ -15146,10 +17109,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>9</v>
@@ -15166,7 +17129,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
         <v xml:space="preserve">    private Long sort;</v>
       </c>
     </row>
@@ -15181,14 +17144,14 @@
         <v>20</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="1" t="str">
@@ -15401,12 +17364,12 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -15467,7 +17430,7 @@
 ADD COLUMN   NOT NULL DEFAULT 1;</v>
       </c>
       <c r="M28" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15488,7 +17451,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M29" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15508,7 +17471,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M30" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15528,7 +17491,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M31" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; $F31,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; $F31,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15568,27 +17531,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M6" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -15597,7 +17560,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="12" t="s">
@@ -15623,7 +17586,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
@@ -15715,7 +17678,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="2"/>
@@ -15734,7 +17697,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -15742,7 +17705,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="1" t="str">
@@ -15753,7 +17716,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
         <v xml:space="preserve">    private Long menuControlId;</v>
       </c>
     </row>
@@ -15763,7 +17726,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
@@ -15780,7 +17743,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
         <v xml:space="preserve">    private Long roleDetailId;</v>
       </c>
     </row>
@@ -15790,14 +17753,14 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="2"/>
@@ -15809,7 +17772,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
         <v xml:space="preserve">    private Boolean renderControl = true;</v>
       </c>
     </row>
@@ -15819,14 +17782,14 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="2"/>
@@ -15838,7 +17801,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
         <v xml:space="preserve">    private Boolean disableControl = false;</v>
       </c>
     </row>
@@ -15848,14 +17811,14 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="2"/>
@@ -15867,7 +17830,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
         <v xml:space="preserve">    private Boolean confirm = false;</v>
       </c>
     </row>
@@ -15877,14 +17840,14 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="2"/>
@@ -15896,7 +17859,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; $F17,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; $F17,"")&amp;";"</f>
         <v xml:space="preserve">    private Boolean requirePassword = false;</v>
       </c>
     </row>
@@ -15911,14 +17874,14 @@
         <v>20</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="1" t="str">
@@ -16131,12 +18094,12 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -16197,7 +18160,7 @@
 ADD COLUMN   NOT NULL DEFAULT 1;</v>
       </c>
       <c r="M29" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16218,7 +18181,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M30" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16238,7 +18201,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M31" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; $F31,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; $F31,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16258,7 +18221,7 @@
 ADD COLUMN  ;</v>
       </c>
       <c r="M32" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D32, '[1]Post-Java'!$A$2:$B$17, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C32))&amp;MID(SUBSTITUTE(PROPER($C32),"_",""),2,LEN($C32))&amp;IF(AND(LEN($F32)&gt;0, $C32&lt;&gt;"id")," = " &amp; $F32,"")&amp;";"</f>
+        <f>"    private "&amp; VLOOKUP($D32, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C32))&amp;MID(SUBSTITUTE(PROPER($C32),"_",""),2,LEN($C32))&amp;IF(AND(LEN($F32)&gt;0, $C32&lt;&gt;"id")," = " &amp; $F32,"")&amp;";"</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/database/system.xlsx
+++ b/database/system.xlsx
@@ -5,37 +5,38 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/Suntech/ProjectsGroup/document/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Library/Containers/com.microsoft.Excel/Data/Desktop/Suntech/ProjectsGroup/document/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D23FEBB-23FF-8F42-B58D-55D61C1736AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA04EDB5-3B0E-A641-8558-519A4A279E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20120" firstSheet="3" activeTab="19" xr2:uid="{480A02FF-4BDA-A947-AA7E-56ADDCE3293B}"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="2" xr2:uid="{480A02FF-4BDA-A947-AA7E-56ADDCE3293B}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
     <sheet name="Relationship" sheetId="5" r:id="rId2"/>
-    <sheet name="human_or_org" sheetId="1" r:id="rId3"/>
-    <sheet name="owner_org" sheetId="7" r:id="rId4"/>
-    <sheet name="role" sheetId="6" r:id="rId5"/>
-    <sheet name="assignment_role" sheetId="16" r:id="rId6"/>
-    <sheet name="role_detail" sheetId="13" r:id="rId7"/>
-    <sheet name="control" sheetId="14" r:id="rId8"/>
-    <sheet name="role_control" sheetId="15" r:id="rId9"/>
-    <sheet name="human_org" sheetId="10" r:id="rId10"/>
-    <sheet name="menu_org" sheetId="11" r:id="rId11"/>
-    <sheet name="menu" sheetId="12" r:id="rId12"/>
-    <sheet name="menu_control" sheetId="17" r:id="rId13"/>
-    <sheet name="user_settings" sheetId="18" r:id="rId14"/>
-    <sheet name="locale_resource" sheetId="19" r:id="rId15"/>
-    <sheet name="global_param" sheetId="20" r:id="rId16"/>
-    <sheet name="language" sheetId="21" r:id="rId17"/>
-    <sheet name="menu_history" sheetId="22" r:id="rId18"/>
-    <sheet name="auth_token" sheetId="23" r:id="rId19"/>
-    <sheet name="news" sheetId="24" r:id="rId20"/>
+    <sheet name="notification" sheetId="25" r:id="rId3"/>
+    <sheet name="human_or_org" sheetId="1" r:id="rId4"/>
+    <sheet name="owner_org" sheetId="7" r:id="rId5"/>
+    <sheet name="role" sheetId="6" r:id="rId6"/>
+    <sheet name="assignment_role" sheetId="16" r:id="rId7"/>
+    <sheet name="role_detail" sheetId="13" r:id="rId8"/>
+    <sheet name="control" sheetId="14" r:id="rId9"/>
+    <sheet name="role_control" sheetId="15" r:id="rId10"/>
+    <sheet name="human_org" sheetId="10" r:id="rId11"/>
+    <sheet name="menu_org" sheetId="11" r:id="rId12"/>
+    <sheet name="menu" sheetId="12" r:id="rId13"/>
+    <sheet name="menu_control" sheetId="17" r:id="rId14"/>
+    <sheet name="user_settings" sheetId="18" r:id="rId15"/>
+    <sheet name="locale_resource" sheetId="19" r:id="rId16"/>
+    <sheet name="global_param" sheetId="20" r:id="rId17"/>
+    <sheet name="language" sheetId="21" r:id="rId18"/>
+    <sheet name="menu_history" sheetId="22" r:id="rId19"/>
+    <sheet name="auth_token" sheetId="23" r:id="rId20"/>
+    <sheet name="news" sheetId="24" r:id="rId21"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="269">
   <si>
     <t>Tên bảng</t>
   </si>
@@ -800,6 +801,66 @@
   </si>
   <si>
     <t>Số lần xem</t>
+  </si>
+  <si>
+    <t>Thông báo</t>
+  </si>
+  <si>
+    <t>access_date</t>
+  </si>
+  <si>
+    <t>from_human_id</t>
+  </si>
+  <si>
+    <t>to_human_id</t>
+  </si>
+  <si>
+    <t>from_group_id</t>
+  </si>
+  <si>
+    <t>to_group_id</t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>target_id</t>
+  </si>
+  <si>
+    <t>is_read</t>
+  </si>
+  <si>
+    <t>part_notification</t>
+  </si>
+  <si>
+    <t>14/05/2020</t>
+  </si>
+  <si>
+    <t>INDEXING</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>DESC NULLS LAST</t>
+  </si>
+  <si>
+    <t>'CHAT'</t>
+  </si>
+  <si>
+    <t>full_text_search</t>
+  </si>
+  <si>
+    <t>CHAT, ALARM, FUNCTIONAL</t>
+  </si>
+  <si>
+    <t>is_cancel</t>
+  </si>
+  <si>
+    <t>) PARTITION BY RANGE (access_date) ;</t>
+  </si>
+  <si>
+    <t>is_fininshed</t>
   </si>
 </sst>
 </file>
@@ -1018,6 +1079,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1034,9 +1098,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1897,14 +1958,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -1921,7 +1982,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1130300" y="1130300"/>
+          <a:off x="4521200" y="1130300"/>
           <a:ext cx="1854200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1960,16 +2021,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1993900</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2222500</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1984,7 +2045,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4305300" y="1257300"/>
+          <a:off x="7772400" y="1295400"/>
           <a:ext cx="228600" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="curvedRightArrow">
@@ -2024,14 +2085,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -2048,7 +2109,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2197100" y="4178300"/>
+          <a:off x="5588000" y="4178300"/>
           <a:ext cx="1854200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2087,14 +2148,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1231900</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -2111,7 +2172,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3873500" y="3454400"/>
+          <a:off x="7010400" y="3454400"/>
           <a:ext cx="1854200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2154,14 +2215,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2174,14 +2235,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="0"/>
-          <a:endCxn id="33" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4800600" y="1612900"/>
+          <a:off x="8191500" y="1612900"/>
           <a:ext cx="450850" cy="1841500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2210,14 +2268,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -2230,13 +2288,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3213100" y="3835400"/>
+          <a:off x="6604000" y="3835400"/>
           <a:ext cx="1587500" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2265,14 +2321,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -2289,7 +2345,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="2184400"/>
+          <a:off x="4470400" y="2184400"/>
           <a:ext cx="1854200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2328,14 +2384,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2146300</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -2355,7 +2411,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="444500"/>
+          <a:off x="6438900" y="444500"/>
           <a:ext cx="1485900" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2384,14 +2440,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -2410,7 +2466,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2006600" y="1612900"/>
+          <a:off x="5397500" y="1612900"/>
           <a:ext cx="2692400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2439,14 +2495,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -2463,7 +2519,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="3200400"/>
+          <a:off x="4419600" y="3200400"/>
           <a:ext cx="1854200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2502,14 +2558,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -2526,7 +2582,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1676400"/>
+          <a:off x="3390900" y="1676400"/>
           <a:ext cx="1854200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2565,14 +2621,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -2586,13 +2642,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="2" idx="1"/>
+          <a:endCxn id="2" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="825500" y="1320800"/>
-          <a:ext cx="304800" cy="330200"/>
+          <a:off x="4216400" y="1511300"/>
+          <a:ext cx="1231900" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2620,14 +2676,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -2646,7 +2702,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="927100" y="2057400"/>
+          <a:off x="4318000" y="2057400"/>
           <a:ext cx="127000" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2675,14 +2731,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -2699,7 +2755,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1981200" y="2552700"/>
+          <a:off x="5372100" y="2552700"/>
           <a:ext cx="38100" cy="673100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2728,14 +2784,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -2752,7 +2808,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="4305300"/>
+          <a:off x="3505200" y="4305300"/>
           <a:ext cx="1854200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2791,14 +2847,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -2818,7 +2874,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1041400" y="3581400"/>
+          <a:off x="4432300" y="3581400"/>
           <a:ext cx="914400" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2847,14 +2903,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -2871,7 +2927,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1193800" y="254000"/>
+          <a:off x="4584700" y="254000"/>
           <a:ext cx="1854200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2910,14 +2966,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -2936,7 +2992,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2006600" y="635000"/>
+          <a:off x="5397500" y="635000"/>
           <a:ext cx="114300" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2965,14 +3021,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -2987,12 +3043,11 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="30" idx="3"/>
-          <a:endCxn id="15" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2882900" y="3390900"/>
+          <a:off x="6273800" y="3390900"/>
           <a:ext cx="990600" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3021,14 +3076,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -3045,7 +3100,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="431800" y="5245100"/>
+          <a:off x="3822700" y="5245100"/>
           <a:ext cx="1193800" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3084,14 +3139,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -3106,12 +3161,11 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="42" idx="2"/>
-          <a:endCxn id="35" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="4686300"/>
+          <a:off x="4432300" y="4686300"/>
           <a:ext cx="1447800" cy="546100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3140,14 +3194,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -3164,7 +3218,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4546600" y="1231900"/>
+          <a:off x="7988300" y="1231900"/>
           <a:ext cx="1409700" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3203,16 +3257,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
+      <xdr:rowOff>188913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1993900</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3229,7 +3283,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3035300" y="1370013"/>
+          <a:off x="6502400" y="1408113"/>
           <a:ext cx="1270000" cy="1587"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3258,14 +3312,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1778000</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -3282,7 +3336,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2489200" y="5041900"/>
+          <a:off x="5702300" y="5041900"/>
           <a:ext cx="1854200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3321,14 +3375,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -3345,7 +3399,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1638300" y="5435600"/>
+          <a:off x="5029200" y="5435600"/>
           <a:ext cx="1689100" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3374,14 +3428,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -3395,13 +3449,12 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="0"/>
           <a:endCxn id="14" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3124200" y="4559300"/>
+          <a:off x="6515100" y="4559300"/>
           <a:ext cx="292100" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3430,14 +3483,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -3454,7 +3507,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4102100" y="292100"/>
+          <a:off x="7493000" y="292100"/>
           <a:ext cx="1193800" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3493,14 +3546,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -3519,7 +3572,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2984500" y="673100"/>
+          <a:off x="6375400" y="673100"/>
           <a:ext cx="1714500" cy="673100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3548,14 +3601,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -3574,7 +3627,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3086100" y="673100"/>
+          <a:off x="6477000" y="673100"/>
           <a:ext cx="1612900" cy="3479800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3603,14 +3656,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -3627,7 +3680,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7150100" y="1193800"/>
+          <a:off x="10541000" y="1193800"/>
           <a:ext cx="1854200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3670,14 +3723,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -3696,7 +3749,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6000750" y="1384300"/>
+          <a:off x="9391650" y="1384300"/>
           <a:ext cx="1149350" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3725,14 +3778,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3749,7 +3802,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8496300" y="25400"/>
+          <a:off x="11887200" y="25400"/>
           <a:ext cx="1854200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3792,14 +3845,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3816,7 +3869,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5873750" y="177800"/>
+          <a:off x="9264650" y="177800"/>
           <a:ext cx="2597150" cy="1041400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3845,14 +3898,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -3869,7 +3922,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="3263900"/>
+          <a:off x="11620500" y="3263900"/>
           <a:ext cx="1854200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3908,14 +3961,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -3935,7 +3988,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4051300" y="3454400"/>
+          <a:off x="7442200" y="3454400"/>
           <a:ext cx="4178300" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3964,14 +4017,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3990,7 +4043,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5930900" y="1612900"/>
+          <a:off x="9321800" y="1612900"/>
           <a:ext cx="2298700" cy="1841500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4019,14 +4072,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4045,7 +4098,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2946400" y="1524000"/>
+          <a:off x="6337300" y="1524000"/>
           <a:ext cx="5283200" cy="1930400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4074,15 +4127,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4098,7 +4151,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11010900" y="63500"/>
+          <a:off x="14859000" y="673100"/>
           <a:ext cx="1854200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4141,16 +4194,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4165,7 +4218,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10998200" y="622300"/>
+          <a:off x="14833600" y="1524000"/>
           <a:ext cx="1854200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4202,6 +4255,234 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rounded Rectangle 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6286AE-B4FF-5643-905D-C4F484C90435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1600200"/>
+          <a:ext cx="1854200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>notification</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9A290E-73D3-8549-9A35-57C795088096}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2463800" y="1320800"/>
+          <a:ext cx="2057400" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483EBAF5-277A-EF4F-A934-72C4A44F2473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2413000" y="1206500"/>
+          <a:ext cx="2082800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2159000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCE840D-EB62-A54E-B201-220E3BE4EBB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1536700" y="1981200"/>
+          <a:ext cx="6400800" cy="1473200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4212,7 +4493,7 @@
       <sheetName val="Post-Java"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="A2" t="str">
             <v>varchar</v>
@@ -4680,6 +4961,736 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0561FD-AC03-AB44-B6DA-98B23CB138B1}">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="49" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M1" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M2" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M3" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M4" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M6" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3" t="str">
+        <f>"@Data"</f>
+        <v>@Data</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1" t="str">
+        <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
+        <v>drop table if exists role_control;</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="str">
+        <f>"@Table"</f>
+        <v>@Table</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1" t="str">
+        <f xml:space="preserve"> "create table " &amp; C8</f>
+        <v>create table role_control</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="str">
+        <f>"public class " &amp; PROPER(LEFT($C$8)) &amp; MID(SUBSTITUTE(PROPER($C$8),"_",""),2,LEN($C$8)) &amp; "  extends GenericEntity {"</f>
+        <v>public class RoleControl  extends GenericEntity {</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1" t="str">
+        <f>"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
+        <v xml:space="preserve">    id bigint NOT NULL DEFAULT id_generator(),</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1" t="str">
+        <f t="shared" ref="I12:I25" si="0">"    " &amp; C12 &amp; " " &amp; D12 &amp; IF(E12="yes"," NOT NULL", "") &amp; IF(LEN(F12) &gt; 0," DEFAULT " &amp; F12, "") &amp; ","</f>
+        <v xml:space="preserve">    menu_control_id bigint,</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long menuControlId;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    role_detail_id bigint,</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long roleDetailId;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    render_control boolean DEFAULT true,</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <v xml:space="preserve">    private Boolean renderControl = true;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    disable_control boolean DEFAULT false,</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <v xml:space="preserve">    private Boolean disableControl = false;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    confirm boolean DEFAULT false,</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
+        <v xml:space="preserve">    private Boolean confirm = false;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    require_password boolean DEFAULT false,</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; $F17,"")&amp;";"</f>
+        <v xml:space="preserve">    private Boolean requirePassword = false;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    created_by bigint,</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    created_date bigint,</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updated_by bigint,</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>12</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updated_date bigint,</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_by bigint,</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>14</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_date bigint,</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    version integer DEFAULT 1,</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1" t="str">
+        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
+        <v xml:space="preserve">    CONSTRAINT role_control_pk PRIMARY KEY (id)</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="I29" s="3" t="str">
+        <f>"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C29 &amp; " " &amp; D29 &amp; IF(E29="yes"," NOT NULL", "") &amp; IF(LEN(F29) &gt; 0," DEFAULT " &amp; F29, "") &amp; ";"</f>
+        <v>ALTER TABLE role_control
+ADD COLUMN   NOT NULL DEFAULT 1;</v>
+      </c>
+      <c r="M29" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>2</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="9"/>
+      <c r="I30" s="3" t="str">
+        <f t="shared" ref="I30:I32" si="1">"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C30 &amp; " " &amp; D30 &amp; IF(E30="yes"," NOT NULL", "") &amp; IF(LEN(F30) &gt; 0," DEFAULT " &amp; F30, "") &amp; ";"</f>
+        <v>ALTER TABLE role_control
+ADD COLUMN  ;</v>
+      </c>
+      <c r="M30" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>3</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="I31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE role_control
+ADD COLUMN  ;</v>
+      </c>
+      <c r="M31" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; $F31,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>4</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="I32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE role_control
+ADD COLUMN  ;</v>
+      </c>
+      <c r="M32" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D32, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C32))&amp;MID(SUBSTITUTE(PROPER($C32),"_",""),2,LEN($C32))&amp;IF(AND(LEN($F32)&gt;0, $C32&lt;&gt;"id")," = " &amp; $F32,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F26DE51-31C6-6347-951F-58B91E80885B}">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -4725,21 +5736,21 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -4751,21 +5762,21 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -5160,15 +6171,15 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1" t="s">
         <v>32</v>
@@ -5300,7 +6311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D395125-A4C0-E54E-BBCB-C36D59EEB84C}">
   <dimension ref="A1:M29"/>
   <sheetViews>
@@ -5346,21 +6357,21 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -5372,21 +6383,21 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -5804,15 +6815,15 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1" t="s">
         <v>32</v>
@@ -5945,7 +6956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006C0219-83E4-D147-928B-1F47B8789610}">
   <dimension ref="A1:M33"/>
   <sheetViews>
@@ -5991,21 +7002,21 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -6017,21 +7028,21 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -6564,15 +7575,15 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="2"/>
       <c r="I28" s="1" t="s">
         <v>32</v>
@@ -6700,7 +7711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB2C6B6-B22B-DC42-A4BC-7838FEAC3022}">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -6746,21 +7757,21 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -6772,21 +7783,21 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -7173,15 +8184,15 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1" t="s">
         <v>32</v>
@@ -7309,7 +8320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A4ED51-51EB-D847-95A0-2762802A9345}">
   <dimension ref="A1:M31"/>
   <sheetViews>
@@ -7348,21 +8359,21 @@
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -7374,21 +8385,21 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -7782,15 +8793,15 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="2"/>
       <c r="I26" s="1" t="s">
         <v>32</v>
@@ -7918,7 +8929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B00BF8-BF48-254A-A076-553878C36CE4}">
   <dimension ref="A1:M32"/>
   <sheetViews>
@@ -7964,21 +8975,21 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -7990,21 +9001,21 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -8502,15 +9513,15 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="2"/>
       <c r="I27" s="1" t="s">
         <v>32</v>
@@ -8638,7 +9649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCE6D08-45A8-F844-90A9-1A22CDD79E69}">
   <dimension ref="A1:N32"/>
   <sheetViews>
@@ -8684,22 +9695,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -8711,22 +9722,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -9238,16 +10249,16 @@
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="2"/>
       <c r="J27" s="1" t="s">
         <v>32</v>
@@ -9380,7 +10391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F99372-20F5-644C-8913-8DD3BCB8CD32}">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -9426,22 +10437,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -9453,22 +10464,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -9915,16 +10926,16 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="2"/>
       <c r="J25" s="1" t="s">
         <v>32</v>
@@ -10057,7 +11068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DCA2C9-D43B-E84B-AEF4-31AD04A0D90F}">
   <dimension ref="A1:N31"/>
   <sheetViews>
@@ -10103,22 +11114,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -10130,22 +11141,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -10623,16 +11634,16 @@
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="2"/>
       <c r="J26" s="1" t="s">
         <v>32</v>
@@ -10765,7 +11776,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84AB216-7DCB-EE44-B232-42EB57CEE4B5}">
+  <dimension ref="H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="29.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FF3E04-CA9C-5C4D-8862-D859D85F748C}">
   <dimension ref="A1:N33"/>
   <sheetViews>
@@ -10813,22 +11846,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -10840,22 +11873,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -11400,16 +12433,16 @@
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="2"/>
       <c r="J28" s="1" t="s">
         <v>32</v>
@@ -11538,33 +12571,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84AB216-7DCB-EE44-B232-42EB57CEE4B5}">
-  <dimension ref="H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="29.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H28" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8475E7-60F3-CD43-9740-A0DF9677F6EE}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
@@ -11608,22 +12619,22 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -11635,22 +12646,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -12290,16 +13301,16 @@
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="2"/>
       <c r="J31" s="1" t="s">
         <v>32</v>
@@ -12429,6 +13440,1083 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B54988D-474E-5743-8185-18CA23DAB478}">
+  <dimension ref="A1:N49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N1" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="15"/>
+      <c r="N2" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3" t="str">
+        <f>"@Data"</f>
+        <v>@Data</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1" t="str">
+        <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
+        <v>drop table if exists part_notification;</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="str">
+        <f>"@Table"</f>
+        <v>@Table</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1" t="str">
+        <f xml:space="preserve"> "create table " &amp; C8</f>
+        <v>create table part_notification</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="str">
+        <f>"public class " &amp; PROPER(LEFT($C$8)) &amp; MID(SUBSTITUTE(PROPER($C$8),"_",""),2,LEN($C$8)) &amp; " extends GenericEntity {"</f>
+        <v>public class PartNotification extends GenericEntity {</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1" t="str">
+        <f t="shared" ref="J11:J32" si="0">"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
+        <v xml:space="preserve">    id bigint NOT NULL DEFAULT id_generator(),</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1" t="str">
+        <f>"    " &amp; C12 &amp; " " &amp; D12 &amp; IF(E12="yes"," NOT NULL", "") &amp; IF(LEN(F12) &gt; 0," DEFAULT " &amp; F12, "") &amp; ","</f>
+        <v xml:space="preserve">    from_human_id bigint,</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long fromHumanId;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1" t="str">
+        <f t="shared" ref="J13:J26" si="1">"    " &amp; C13 &amp; " " &amp; D13 &amp; IF(E13="yes"," NOT NULL", "") &amp; IF(LEN(F13) &gt; 0," DEFAULT " &amp; F13, "") &amp; ","</f>
+        <v xml:space="preserve">    to_human_id bigint,</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long toHumanId;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    from_group_id bigint,</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long fromGroupId;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    to_group_id bigint,</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long toGroupId;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    menu_path text,</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
+        <v xml:space="preserve">    private String menuPath;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    department_id bigint,</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; $F17,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long departmentId;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    target_id bigint,</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D18, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C18))&amp;MID(SUBSTITUTE(PROPER($C18),"_",""),2,LEN($C18))&amp;IF(AND(LEN($F18)&gt;0, $C18&lt;&gt;"id")," = " &amp; $F18,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long targetId;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    type text DEFAULT 'CHAT',</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D19, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;IF(AND(LEN($F19)&gt;0, $C19&lt;&gt;"id")," = " &amp; $F19,"")&amp;";"</f>
+        <v xml:space="preserve">    private String type = 'CHAT';</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    title text,</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D20, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C20))&amp;MID(SUBSTITUTE(PROPER($C20),"_",""),2,LEN($C20))&amp;IF(AND(LEN($F20)&gt;0, $C20&lt;&gt;"id")," = " &amp; $F20,"")&amp;";"</f>
+        <v xml:space="preserve">    private String title;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    is_read boolean DEFAULT false,</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D21, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C21))&amp;MID(SUBSTITUTE(PROPER($C21),"_",""),2,LEN($C21))&amp;IF(AND(LEN($F21)&gt;0, $C21&lt;&gt;"id")," = " &amp; $F21,"")&amp;";"</f>
+        <v xml:space="preserve">    private Boolean isRead = false;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>12</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    is_fininshed boolean DEFAULT false,</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D22, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;IF(AND(LEN($F22)&gt;0, $C22&lt;&gt;"id")," = " &amp; $F22,"")&amp;";"</f>
+        <v xml:space="preserve">    private Boolean isFininshed = false;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    full_text_search text,</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D23, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C23))&amp;MID(SUBSTITUTE(PROPER($C23),"_",""),2,LEN($C23))&amp;IF(AND(LEN($F23)&gt;0, $C23&lt;&gt;"id")," = " &amp; $F23,"")&amp;";"</f>
+        <v xml:space="preserve">    private String fullTextSearch;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>14</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    is_cancel boolean DEFAULT FALSE,</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D24, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C24))&amp;MID(SUBSTITUTE(PROPER($C24),"_",""),2,LEN($C24))&amp;IF(AND(LEN($F24)&gt;0, $C24&lt;&gt;"id")," = " &amp; $F24,"")&amp;";"</f>
+        <v xml:space="preserve">    private Boolean isCancel = FALSE;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    access_date bigint,</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>17</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    created_by bigint,</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>18</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    created_date bigint,</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>19</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updated_by bigint,</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>20</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updated_date bigint,</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>21</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_by bigint,</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>22</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_date bigint,</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>23</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="1" t="str">
+        <f>"    " &amp; C33 &amp; " " &amp; D33 &amp; IF(E33="yes"," NOT NULL", "") &amp; IF(LEN(F33) &gt; 0," DEFAULT " &amp; F33, "")</f>
+        <v xml:space="preserve">    version integer DEFAULT 1</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",",,G11:G33)</f>
+        <v/>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="1" t="str">
+        <f>IF(LEN($G34)&gt;0, "    unique (" &amp; $G34 &amp; "),","")</f>
+        <v/>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="J38" s="3" t="str">
+        <f>"CREATE INDEX " &amp; $C$8 &amp; "_idx_" &amp; $C38 &amp; " ON " &amp; $C$8 &amp; "(" &amp; $C38 &amp; " "  &amp; $D38 &amp; ");"</f>
+        <v>CREATE INDEX part_notification_idx_created_date ON part_notification(created_date DESC NULLS LAST);</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>4</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="44" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="J46" s="3" t="str">
+        <f>"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C46 &amp; " " &amp; D46 &amp; IF(E46="yes"," NOT NULL", "") &amp; IF(LEN(F46) &gt; 0," DEFAULT " &amp; F46, "") &amp; ";"</f>
+        <v>ALTER TABLE part_notification
+ADD COLUMN access_date bigint;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>2</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="J47" s="3" t="str">
+        <f t="shared" ref="J47:J49" si="2">"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C47 &amp; " " &amp; D47 &amp; IF(E47="yes"," NOT NULL", "") &amp; IF(LEN(F47) &gt; 0," DEFAULT " &amp; F47, "") &amp; ";"</f>
+        <v>ALTER TABLE part_notification
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>3</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="J48" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALTER TABLE part_notification
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>4</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="J49" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALTER TABLE part_notification
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D9600D-F7F3-0542-AFC1-A4D74AFE6D69}">
   <dimension ref="A1:M47"/>
   <sheetViews>
@@ -12474,21 +14562,21 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -12500,21 +14588,21 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -13454,15 +15542,15 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1" t="s">
         <v>32</v>
@@ -13595,7 +15683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE84DBB-2ECF-C341-AB9E-FD18F2FFBB0F}">
   <dimension ref="A1:M48"/>
   <sheetViews>
@@ -13641,21 +15729,21 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -13667,21 +15755,21 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -14402,7 +16490,7 @@
       <c r="F33" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="19" t="s">
         <v>227</v>
       </c>
       <c r="H33" s="2"/>
@@ -14650,15 +16738,15 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1" t="s">
         <v>32</v>
@@ -14791,7 +16879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B87BCE9-7FD3-E741-8628-B36A5D8ABF5D}">
   <dimension ref="A1:M30"/>
   <sheetViews>
@@ -14837,21 +16925,21 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -14863,21 +16951,21 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -15330,15 +17418,15 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="2"/>
       <c r="I25" s="1" t="s">
         <v>32</v>
@@ -15475,7 +17563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489F118F-0AD7-874A-A8F0-01F9098818C7}">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -15521,21 +17609,21 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -15547,21 +17635,21 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -15956,15 +18044,15 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1" t="s">
         <v>32</v>
@@ -16101,7 +18189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557461E-BC7B-4549-BE30-A1E1D65424B5}">
   <dimension ref="A1:M31"/>
   <sheetViews>
@@ -16147,21 +18235,21 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -16173,21 +18261,21 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -16657,15 +18745,15 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="2"/>
       <c r="I26" s="1" t="s">
         <v>32</v>
@@ -16798,7 +18886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922A126E-D8B2-A64A-9460-0AFE9A104F92}">
   <dimension ref="A1:M31"/>
   <sheetViews>
@@ -16844,21 +18932,21 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -16870,21 +18958,21 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -17368,15 +19456,15 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="2"/>
       <c r="I26" s="1" t="s">
         <v>32</v>
@@ -17507,734 +19595,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0561FD-AC03-AB44-B6DA-98B23CB138B1}">
-  <dimension ref="A1:M32"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="49" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M1" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M2" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M3" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M4" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M6" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3" t="str">
-        <f>"@Data"</f>
-        <v>@Data</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1" t="str">
-        <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
-        <v>drop table if exists role_control;</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="str">
-        <f>"@Table"</f>
-        <v>@Table</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1" t="str">
-        <f xml:space="preserve"> "create table " &amp; C8</f>
-        <v>create table role_control</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="str">
-        <f>"public class " &amp; PROPER(LEFT($C$8)) &amp; MID(SUBSTITUTE(PROPER($C$8),"_",""),2,LEN($C$8)) &amp; "  extends GenericEntity {"</f>
-        <v>public class RoleControl  extends GenericEntity {</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1" t="str">
-        <f>"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
-        <v xml:space="preserve">    id bigint NOT NULL DEFAULT id_generator(),</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1" t="str">
-        <f t="shared" ref="I12:I25" si="0">"    " &amp; C12 &amp; " " &amp; D12 &amp; IF(E12="yes"," NOT NULL", "") &amp; IF(LEN(F12) &gt; 0," DEFAULT " &amp; F12, "") &amp; ","</f>
-        <v xml:space="preserve">    menu_control_id bigint,</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
-        <v xml:space="preserve">    private Long menuControlId;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    role_detail_id bigint,</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
-        <v xml:space="preserve">    private Long roleDetailId;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    render_control boolean DEFAULT true,</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
-        <v xml:space="preserve">    private Boolean renderControl = true;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>5</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    disable_control boolean DEFAULT false,</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
-        <v xml:space="preserve">    private Boolean disableControl = false;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    confirm boolean DEFAULT false,</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D16, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C16))&amp;MID(SUBSTITUTE(PROPER($C16),"_",""),2,LEN($C16))&amp;IF(AND(LEN($F16)&gt;0, $C16&lt;&gt;"id")," = " &amp; $F16,"")&amp;";"</f>
-        <v xml:space="preserve">    private Boolean confirm = false;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    require_password boolean DEFAULT false,</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="str">
-        <f>"    private "&amp; VLOOKUP($D17, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C17))&amp;MID(SUBSTITUTE(PROPER($C17),"_",""),2,LEN($C17))&amp;IF(AND(LEN($F17)&gt;0, $C17&lt;&gt;"id")," = " &amp; $F17,"")&amp;";"</f>
-        <v xml:space="preserve">    private Boolean requirePassword = false;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>8</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>9</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    created_by bigint,</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    created_date bigint,</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>11</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    updated_by bigint,</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>12</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    updated_date bigint,</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>13</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    deleted_by bigint,</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>14</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    deleted_date bigint,</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>15</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    version integer DEFAULT 1,</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1" t="str">
-        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
-        <v xml:space="preserve">    CONSTRAINT role_control_pk PRIMARY KEY (id)</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>1</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="I29" s="3" t="str">
-        <f>"ALTER TABLE " &amp; $C$8 &amp; "
-ADD COLUMN " &amp; C29 &amp; " " &amp; D29 &amp; IF(E29="yes"," NOT NULL", "") &amp; IF(LEN(F29) &gt; 0," DEFAULT " &amp; F29, "") &amp; ";"</f>
-        <v>ALTER TABLE role_control
-ADD COLUMN   NOT NULL DEFAULT 1;</v>
-      </c>
-      <c r="M29" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D29, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C29))&amp;MID(SUBSTITUTE(PROPER($C29),"_",""),2,LEN($C29))&amp;IF(AND(LEN($F29)&gt;0, $C29&lt;&gt;"id")," = " &amp; $F29,"")&amp;";"</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>2</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="9"/>
-      <c r="I30" s="3" t="str">
-        <f t="shared" ref="I30:I32" si="1">"ALTER TABLE " &amp; $C$8 &amp; "
-ADD COLUMN " &amp; C30 &amp; " " &amp; D30 &amp; IF(E30="yes"," NOT NULL", "") &amp; IF(LEN(F30) &gt; 0," DEFAULT " &amp; F30, "") &amp; ";"</f>
-        <v>ALTER TABLE role_control
-ADD COLUMN  ;</v>
-      </c>
-      <c r="M30" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D30, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C30))&amp;MID(SUBSTITUTE(PROPER($C30),"_",""),2,LEN($C30))&amp;IF(AND(LEN($F30)&gt;0, $C30&lt;&gt;"id")," = " &amp; $F30,"")&amp;";"</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>3</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="I31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE role_control
-ADD COLUMN  ;</v>
-      </c>
-      <c r="M31" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D31, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C31))&amp;MID(SUBSTITUTE(PROPER($C31),"_",""),2,LEN($C31))&amp;IF(AND(LEN($F31)&gt;0, $C31&lt;&gt;"id")," = " &amp; $F31,"")&amp;";"</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>4</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="I32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE role_control
-ADD COLUMN  ;</v>
-      </c>
-      <c r="M32" s="2" t="e">
-        <f>"    private "&amp; VLOOKUP($D32, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C32))&amp;MID(SUBSTITUTE(PROPER($C32),"_",""),2,LEN($C32))&amp;IF(AND(LEN($F32)&gt;0, $C32&lt;&gt;"id")," = " &amp; $F32,"")&amp;";"</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/database/system.xlsx
+++ b/database/system.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Library/Containers/com.microsoft.Excel/Data/Desktop/Suntech/ProjectsGroup/document/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/Suntech/ProjectsGroup/document/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA04EDB5-3B0E-A641-8558-519A4A279E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4A761A-A555-4245-A422-238782BB0B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="2" xr2:uid="{480A02FF-4BDA-A947-AA7E-56ADDCE3293B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="2" xr2:uid="{480A02FF-4BDA-A947-AA7E-56ADDCE3293B}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -34,9 +34,11 @@
     <sheet name="menu_history" sheetId="22" r:id="rId19"/>
     <sheet name="auth_token" sheetId="23" r:id="rId20"/>
     <sheet name="news" sheetId="24" r:id="rId21"/>
+    <sheet name="search_field" sheetId="26" r:id="rId22"/>
+    <sheet name="search_field_menu" sheetId="27" r:id="rId23"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="279">
   <si>
     <t>Tên bảng</t>
   </si>
@@ -861,6 +863,36 @@
   </si>
   <si>
     <t>is_fininshed</t>
+  </si>
+  <si>
+    <t>28/05/2020</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>Field tìm kiếm</t>
+  </si>
+  <si>
+    <t>search_field</t>
+  </si>
+  <si>
+    <t>Field tìm kiếm - menu</t>
+  </si>
+  <si>
+    <t>search_field_menu</t>
+  </si>
+  <si>
+    <t>search_field_id</t>
+  </si>
+  <si>
+    <t>message_type</t>
+  </si>
+  <si>
+    <t>SUBMIT, ASSIGN, HOLD, ..</t>
   </si>
 </sst>
 </file>
@@ -1091,13 +1123,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4017,16 +4049,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4038,13 +4070,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="38" idx="1"/>
+          <a:stCxn id="64" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9321800" y="1612900"/>
-          <a:ext cx="2298700" cy="1841500"/>
+        <a:xfrm flipV="1">
+          <a:off x="15709900" y="2844800"/>
+          <a:ext cx="101600" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4483,6 +4515,185 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rounded Rectangle 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B21BAB93-026D-0B46-ADAB-81CA7B629FD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14820900" y="2463800"/>
+          <a:ext cx="1854200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>search_field</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Rounded Rectangle 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58096280-DB67-E041-8A78-F12CB13F047D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14782800" y="3568700"/>
+          <a:ext cx="1854200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>search_field_menu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1689100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD5714E-446E-144E-B61B-7205462D8CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7467600" y="3708400"/>
+          <a:ext cx="7315200" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4493,7 +4704,7 @@
       <sheetName val="Post-Java"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="2">
           <cell r="A2" t="str">
             <v>varchar</v>
@@ -5036,17 +5247,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -5766,17 +5977,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -6387,17 +6598,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -7032,17 +7243,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -7787,17 +7998,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -8389,17 +8600,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -9005,17 +9216,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -9726,18 +9937,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -10468,18 +10679,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -11145,18 +11356,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -11781,7 +11992,7 @@
   <dimension ref="H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11877,18 +12088,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -12650,18 +12861,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -13439,12 +13650,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B54988D-474E-5743-8185-18CA23DAB478}">
-  <dimension ref="A1:N49"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F70ED42-3CA7-5A4E-9D92-8BD53FCAF451}">
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13492,7 +13703,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="12" t="s">
@@ -13518,18 +13729,1430 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="24"/>
+      <c r="C8" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1" t="str">
+        <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
+        <v>drop table if exists search_field;</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="str">
+        <f>"@Table"</f>
+        <v>@Table</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1" t="str">
+        <f xml:space="preserve"> "create table " &amp; C8</f>
+        <v>create table search_field</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="str">
+        <f>"public class " &amp; PROPER(LEFT($C$8)) &amp; MID(SUBSTITUTE(PROPER($C$8),"_",""),2,LEN($C$8)) &amp; " extends GenericEntity {"</f>
+        <v>public class SearchField extends GenericEntity {</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1" t="str">
+        <f t="shared" ref="J11:J23" si="0">"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
+        <v xml:space="preserve">    id bigint NOT NULL DEFAULT id_generator(),</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1" t="str">
+        <f>"    " &amp; C12 &amp; " " &amp; D12 &amp; IF(E12="yes"," NOT NULL", "") &amp; IF(LEN(F12) &gt; 0," DEFAULT " &amp; F12, "") &amp; ","</f>
+        <v xml:space="preserve">    name text,</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <v xml:space="preserve">    private String name;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1" t="str">
+        <f t="shared" ref="J13:J14" si="1">"    " &amp; C13 &amp; " " &amp; D13 &amp; IF(E13="yes"," NOT NULL", "") &amp; IF(LEN(F13) &gt; 0," DEFAULT " &amp; F13, "") &amp; ","</f>
+        <v xml:space="preserve">    field text,</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <v xml:space="preserve">    private String field;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    type text,</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <v xml:space="preserve">    private String type;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1" t="str">
+        <f t="shared" ref="J15" si="2">"    " &amp; C15 &amp; " " &amp; D15 &amp; IF(E15="yes"," NOT NULL", "") &amp; IF(LEN(F15) &gt; 0," DEFAULT " &amp; F15, "") &amp; ","</f>
+        <v xml:space="preserve">    access_date bigint,</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long accessDate;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    created_by bigint,</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    created_date bigint,</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updated_by bigint,</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updated_date bigint,</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_by bigint,</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>12</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_date bigint,</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    version integer DEFAULT 1,</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",",,G11:G23)</f>
+        <v/>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1" t="str">
+        <f>IF(LEN($G24)&gt;0, "    unique (" &amp; $G24 &amp; "),","")</f>
+        <v/>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1" t="str">
+        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
+        <v xml:space="preserve">    CONSTRAINT search_field_pk PRIMARY KEY (id)</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="J28" s="3" t="str">
+        <f>"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C28 &amp; " " &amp; D28 &amp; IF(E28="yes"," NOT NULL", "") &amp; IF(LEN(F28) &gt; 0," DEFAULT " &amp; F28, "") &amp; ";"</f>
+        <v>ALTER TABLE search_field
+ADD COLUMN  ;</v>
+      </c>
+      <c r="N28" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>2</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="J29" s="3" t="str">
+        <f t="shared" ref="J29:J31" si="3">"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C29 &amp; " " &amp; D29 &amp; IF(E29="yes"," NOT NULL", "") &amp; IF(LEN(F29) &gt; 0," DEFAULT " &amp; F29, "") &amp; ";"</f>
+        <v>ALTER TABLE search_field
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>ALTER TABLE search_field
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>4</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>ALTER TABLE search_field
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A95197-F97D-7349-9C9F-0999E7890C25}">
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N1" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="15"/>
+      <c r="N2" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3" t="str">
+        <f>"@Data"</f>
+        <v>@Data</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1" t="str">
+        <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
+        <v>drop table if exists search_field_menu;</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="str">
+        <f>"@Table"</f>
+        <v>@Table</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1" t="str">
+        <f xml:space="preserve"> "create table " &amp; C8</f>
+        <v>create table search_field_menu</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="str">
+        <f>"public class " &amp; PROPER(LEFT($C$8)) &amp; MID(SUBSTITUTE(PROPER($C$8),"_",""),2,LEN($C$8)) &amp; " extends GenericEntity {"</f>
+        <v>public class SearchFieldMenu extends GenericEntity {</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1" t="str">
+        <f t="shared" ref="J11:J23" si="0">"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
+        <v xml:space="preserve">    id bigint NOT NULL DEFAULT id_generator(),</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1" t="str">
+        <f>"    " &amp; C12 &amp; " " &amp; D12 &amp; IF(E12="yes"," NOT NULL", "") &amp; IF(LEN(F12) &gt; 0," DEFAULT " &amp; F12, "") &amp; ","</f>
+        <v xml:space="preserve">    menu_id bigint,</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D12, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C12))&amp;MID(SUBSTITUTE(PROPER($C12),"_",""),2,LEN($C12))&amp;IF(AND(LEN($F12)&gt;0, $C12&lt;&gt;"id")," = " &amp; $F12,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long menuId;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1" t="str">
+        <f t="shared" ref="J13:J15" si="1">"    " &amp; C13 &amp; " " &amp; D13 &amp; IF(E13="yes"," NOT NULL", "") &amp; IF(LEN(F13) &gt; 0," DEFAULT " &amp; F13, "") &amp; ","</f>
+        <v xml:space="preserve">    search_field_id bigint,</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D13, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C13))&amp;MID(SUBSTITUTE(PROPER($C13),"_",""),2,LEN($C13))&amp;IF(AND(LEN($F13)&gt;0, $C13&lt;&gt;"id")," = " &amp; $F13,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long searchFieldId;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    counter bigint,</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D14, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C14))&amp;MID(SUBSTITUTE(PROPER($C14),"_",""),2,LEN($C14))&amp;IF(AND(LEN($F14)&gt;0, $C14&lt;&gt;"id")," = " &amp; $F14,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long counter;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    access_date bigint,</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D15, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C15))&amp;MID(SUBSTITUTE(PROPER($C15),"_",""),2,LEN($C15))&amp;IF(AND(LEN($F15)&gt;0, $C15&lt;&gt;"id")," = " &amp; $F15,"")&amp;";"</f>
+        <v xml:space="preserve">    private Long accessDate;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    created_by bigint,</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    created_date bigint,</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updated_by bigint,</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updated_date bigint,</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_by bigint,</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>12</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_date bigint,</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    version integer DEFAULT 1,</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",",,G11:G23)</f>
+        <v/>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1" t="str">
+        <f>IF(LEN($G24)&gt;0, "    unique (" &amp; $G24 &amp; "),","")</f>
+        <v/>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1" t="str">
+        <f>"    CONSTRAINT " &amp; IF(ISERROR(SEARCH(".",$C$8)), $C$8, MID($C$8,SEARCH(".",$C$8) + 1,(LEN($C$8)-SEARCH(".",$C$8)))) &amp; "_pk PRIMARY KEY (" &amp; $C$11 &amp; ")"</f>
+        <v xml:space="preserve">    CONSTRAINT search_field_menu_pk PRIMARY KEY (id)</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D26, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C26))&amp;MID(SUBSTITUTE(PROPER($C26),"_",""),2,LEN($C26))&amp;IF(AND(LEN($F26)&gt;0, $C26&lt;&gt;"id")," = " &amp; $F26,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D27, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C27))&amp;MID(SUBSTITUTE(PROPER($C27),"_",""),2,LEN($C27))&amp;IF(AND(LEN($F27)&gt;0, $C27&lt;&gt;"id")," = " &amp; $F27,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="J28" s="3" t="str">
+        <f>"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C28 &amp; " " &amp; D28 &amp; IF(E28="yes"," NOT NULL", "") &amp; IF(LEN(F28) &gt; 0," DEFAULT " &amp; F28, "") &amp; ";"</f>
+        <v>ALTER TABLE search_field_menu
+ADD COLUMN  ;</v>
+      </c>
+      <c r="N28" s="2" t="e">
+        <f>"    private "&amp; VLOOKUP($D28, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C28))&amp;MID(SUBSTITUTE(PROPER($C28),"_",""),2,LEN($C28))&amp;IF(AND(LEN($F28)&gt;0, $C28&lt;&gt;"id")," = " &amp; $F28,"")&amp;";"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>2</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="J29" s="3" t="str">
+        <f t="shared" ref="J29:J31" si="2">"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C29 &amp; " " &amp; D29 &amp; IF(E29="yes"," NOT NULL", "") &amp; IF(LEN(F29) &gt; 0," DEFAULT " &amp; F29, "") &amp; ";"</f>
+        <v>ALTER TABLE search_field_menu
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALTER TABLE search_field_menu
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>4</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALTER TABLE search_field_menu
+ADD COLUMN  ;</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B54988D-474E-5743-8185-18CA23DAB478}">
+  <dimension ref="A1:N50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N1" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="15"/>
+      <c r="N2" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3" t="str">
+        <f>"@Data"</f>
+        <v>@Data</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -13622,7 +15245,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="2"/>
       <c r="J11" s="1" t="str">
-        <f t="shared" ref="J11:J32" si="0">"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
+        <f t="shared" ref="J11:J33" si="0">"    " &amp; C11 &amp; " " &amp; D11 &amp; IF(E11="yes"," NOT NULL", "") &amp; IF(LEN(F11) &gt; 0," DEFAULT " &amp; F11, "") &amp; ","</f>
         <v xml:space="preserve">    id bigint NOT NULL DEFAULT id_generator(),</v>
       </c>
       <c r="K11" s="1"/>
@@ -13675,7 +15298,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1" t="str">
-        <f t="shared" ref="J13:J26" si="1">"    " &amp; C13 &amp; " " &amp; D13 &amp; IF(E13="yes"," NOT NULL", "") &amp; IF(LEN(F13) &gt; 0," DEFAULT " &amp; F13, "") &amp; ","</f>
+        <f t="shared" ref="J13:J27" si="1">"    " &amp; C13 &amp; " " &amp; D13 &amp; IF(E13="yes"," NOT NULL", "") &amp; IF(LEN(F13) &gt; 0," DEFAULT " &amp; F13, "") &amp; ","</f>
         <v xml:space="preserve">    to_human_id bigint,</v>
       </c>
       <c r="K13" s="1"/>
@@ -13827,102 +15450,100 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>9</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>177</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
-        <v>263</v>
-      </c>
+      <c r="F19" s="17"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    type text DEFAULT 'CHAT',</v>
+        <v xml:space="preserve">    message_type text,</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D19, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C19))&amp;MID(SUBSTITUTE(PROPER($C19),"_",""),2,LEN($C19))&amp;IF(AND(LEN($F19)&gt;0, $C19&lt;&gt;"id")," = " &amp; $F19,"")&amp;";"</f>
-        <v xml:space="preserve">    private String type = 'CHAT';</v>
+        <v xml:space="preserve">    private String messageType;</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>177</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    title text,</v>
+        <v xml:space="preserve">    type text DEFAULT 'CHAT',</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D20, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C20))&amp;MID(SUBSTITUTE(PROPER($C20),"_",""),2,LEN($C20))&amp;IF(AND(LEN($F20)&gt;0, $C20&lt;&gt;"id")," = " &amp; $F20,"")&amp;";"</f>
-        <v xml:space="preserve">    private String title;</v>
+        <v xml:space="preserve">    private String type = 'CHAT';</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
-        <v>161</v>
-      </c>
+      <c r="F21" s="17"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
       <c r="I21" s="2"/>
       <c r="J21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    is_read boolean DEFAULT false,</v>
+        <v xml:space="preserve">    title text,</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D21, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C21))&amp;MID(SUBSTITUTE(PROPER($C21),"_",""),2,LEN($C21))&amp;IF(AND(LEN($F21)&gt;0, $C21&lt;&gt;"id")," = " &amp; $F21,"")&amp;";"</f>
-        <v xml:space="preserve">    private Boolean isRead = false;</v>
+        <v xml:space="preserve">    private String title;</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>153</v>
@@ -13936,124 +15557,123 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    is_fininshed boolean DEFAULT false,</v>
+        <v xml:space="preserve">    is_read boolean DEFAULT false,</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D22, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C22))&amp;MID(SUBSTITUTE(PROPER($C22),"_",""),2,LEN($C22))&amp;IF(AND(LEN($F22)&gt;0, $C22&lt;&gt;"id")," = " &amp; $F22,"")&amp;";"</f>
-        <v xml:space="preserve">    private Boolean isFininshed = false;</v>
+        <v xml:space="preserve">    private Boolean isRead = false;</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="F23" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
       <c r="I23" s="2"/>
       <c r="J23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    full_text_search text,</v>
+        <v xml:space="preserve">    is_fininshed boolean DEFAULT false,</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D23, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C23))&amp;MID(SUBSTITUTE(PROPER($C23),"_",""),2,LEN($C23))&amp;IF(AND(LEN($F23)&gt;0, $C23&lt;&gt;"id")," = " &amp; $F23,"")&amp;";"</f>
-        <v xml:space="preserve">    private String fullTextSearch;</v>
+        <v xml:space="preserve">    private Boolean isFininshed = false;</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="17" t="b">
-        <v>0</v>
-      </c>
+      <c r="F24" s="17"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    is_cancel boolean DEFAULT FALSE,</v>
+        <v xml:space="preserve">    full_text_search text,</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="str">
         <f>"    private "&amp; VLOOKUP($D24, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C24))&amp;MID(SUBSTITUTE(PROPER($C24),"_",""),2,LEN($C24))&amp;IF(AND(LEN($F24)&gt;0, $C24&lt;&gt;"id")," = " &amp; $F24,"")&amp;";"</f>
-        <v xml:space="preserve">    private Boolean isCancel = FALSE;</v>
+        <v xml:space="preserve">    private String fullTextSearch;</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="17" t="b">
+        <v>0</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
       <c r="I25" s="2"/>
       <c r="J25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    access_date bigint,</v>
+        <v xml:space="preserve">    is_cancel boolean DEFAULT FALSE,</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="N25" s="2" t="str">
+        <f>"    private "&amp; VLOOKUP($D25, '[1]Post-Java'!$A$2:$B$19, 2, FALSE) &amp;" "&amp;LOWER(LEFT($C25))&amp;MID(SUBSTITUTE(PROPER($C25),"_",""),2,LEN($C25))&amp;IF(AND(LEN($F25)&gt;0, $C25&lt;&gt;"id")," = " &amp; $F25,"")&amp;";"</f>
+        <v xml:space="preserve">    private Boolean isCancel = FALSE;</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>16</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="9" t="s">
-        <v>154</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="2"/>
       <c r="J26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
+        <v xml:space="preserve">    access_date bigint,</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
@@ -14062,25 +15682,29 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
+      <c r="F27" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    created_by bigint,</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    disabled boolean DEFAULT false,</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="2"/>
@@ -14089,13 +15713,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>9</v>
@@ -14107,7 +15731,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    created_date bigint,</v>
+        <v xml:space="preserve">    created_by bigint,</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
@@ -14116,13 +15740,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>9</v>
@@ -14134,7 +15758,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    updated_by bigint,</v>
+        <v xml:space="preserve">    created_date bigint,</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="2"/>
@@ -14143,13 +15767,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>9</v>
@@ -14161,7 +15785,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    updated_date bigint,</v>
+        <v xml:space="preserve">    updated_by bigint,</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="2"/>
@@ -14170,13 +15794,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>9</v>
@@ -14188,24 +15812,22 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    deleted_by bigint,</v>
+        <v xml:space="preserve">    updated_date bigint,</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>9</v>
@@ -14217,62 +15839,69 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    deleted_date bigint,</v>
+        <v xml:space="preserve">    deleted_by bigint,</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
       <c r="I33" s="2"/>
       <c r="J33" s="1" t="str">
-        <f>"    " &amp; C33 &amp; " " &amp; D33 &amp; IF(E33="yes"," NOT NULL", "") &amp; IF(LEN(F33) &gt; 0," DEFAULT " &amp; F33, "")</f>
-        <v xml:space="preserve">    version integer DEFAULT 1</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    deleted_date bigint,</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(",",,G11:G33)</f>
-        <v/>
-      </c>
-      <c r="H34" s="2"/>
+      <c r="A34" s="5">
+        <v>23</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="2"/>
       <c r="J34" s="1" t="str">
-        <f>IF(LEN($G34)&gt;0, "    unique (" &amp; $G34 &amp; "),","")</f>
-        <v/>
+        <f>"    " &amp; C34 &amp; " " &amp; D34 &amp; IF(E34="yes"," NOT NULL", "") &amp; IF(LEN(F34) &gt; 0," DEFAULT " &amp; F34, "")</f>
+        <v xml:space="preserve">    version integer DEFAULT 1</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
@@ -14281,90 +15910,100 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",",,G11:G34)</f>
+        <v/>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="1" t="s">
-        <v>267</v>
+      <c r="J35" s="1" t="str">
+        <f>IF(LEN($G35)&gt;0, "    unique (" &amp; $G35 &amp; "),","")</f>
+        <v/>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D38" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="13" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>1</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="J38" s="3" t="str">
-        <f>"CREATE INDEX " &amp; $C$8 &amp; "_idx_" &amp; $C38 &amp; " ON " &amp; $C$8 &amp; "(" &amp; $C38 &amp; " "  &amp; $D38 &amp; ");"</f>
-        <v>CREATE INDEX part_notification_idx_created_date ON part_notification(created_date DESC NULLS LAST);</v>
       </c>
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="9"/>
+      <c r="C39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>262</v>
+      </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
+      <c r="J39" s="3" t="str">
+        <f>"CREATE INDEX " &amp; $C$8 &amp; "_idx_" &amp; $C39 &amp; " ON " &amp; $C$8 &amp; "(" &amp; $C39 &amp; " "  &amp; $D39 &amp; ");"</f>
+        <v>CREATE INDEX part_notification_idx_created_date ON part_notification(created_date DESC NULLS LAST);</v>
+      </c>
+      <c r="N39" s="2"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -14376,7 +16015,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -14386,90 +16025,84 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="44" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>4</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="45" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B46" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E46" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="13" t="s">
+      <c r="G46" s="18"/>
+      <c r="H46" s="13" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>1</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="J46" s="3" t="str">
-        <f>"ALTER TABLE " &amp; $C$8 &amp; "
-ADD COLUMN " &amp; C46 &amp; " " &amp; D46 &amp; IF(E46="yes"," NOT NULL", "") &amp; IF(LEN(F46) &gt; 0," DEFAULT " &amp; F46, "") &amp; ";"</f>
-        <v>ALTER TABLE part_notification
-ADD COLUMN access_date bigint;</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="9"/>
+      <c r="C47" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
       <c r="J47" s="3" t="str">
-        <f t="shared" ref="J47:J49" si="2">"ALTER TABLE " &amp; $C$8 &amp; "
+        <f>"ALTER TABLE " &amp; $C$8 &amp; "
 ADD COLUMN " &amp; C47 &amp; " " &amp; D47 &amp; IF(E47="yes"," NOT NULL", "") &amp; IF(LEN(F47) &gt; 0," DEFAULT " &amp; F47, "") &amp; ";"</f>
         <v>ALTER TABLE part_notification
-ADD COLUMN  ;</v>
+ADD COLUMN access_date bigint;</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
@@ -14479,14 +16112,15 @@
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
       <c r="J48" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J48:J50" si="2">"ALTER TABLE " &amp; $C$8 &amp; "
+ADD COLUMN " &amp; C48 &amp; " " &amp; D48 &amp; IF(E48="yes"," NOT NULL", "") &amp; IF(LEN(F48) &gt; 0," DEFAULT " &amp; F48, "") &amp; ";"</f>
         <v>ALTER TABLE part_notification
 ADD COLUMN  ;</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
@@ -14501,10 +16135,27 @@
 ADD COLUMN  ;</v>
       </c>
     </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>4</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="J50" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ALTER TABLE part_notification
+ADD COLUMN  ;</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A45:H45"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:H7"/>
@@ -14592,17 +16243,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -15759,17 +17410,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -16955,17 +18606,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -17639,17 +19290,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -18265,17 +19916,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
@@ -18962,17 +20613,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="str">
         <f xml:space="preserve"> "drop table if exists " &amp; C8 &amp; ";"</f>
